--- a/Arrays.xlsx
+++ b/Arrays.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonholmes/projects/SummerFX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E55066-BF68-A540-8CFA-006D8284EBD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15E34C2-EBB8-3741-A524-9E47582E1D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18520" yWindow="1240" windowWidth="36840" windowHeight="29660" xr2:uid="{50E1C641-7614-0542-B3D9-BEFC89310226}"/>
   </bookViews>
@@ -2313,10 +2313,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB0A31D-4C97-AD45-A228-2A94A1C41CE1}">
   <dimension ref="A1:Q621"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A561" workbookViewId="0">
-      <pane ySplit="20820" topLeftCell="A605"/>
-      <selection activeCell="F600" sqref="F600"/>
-      <selection pane="bottomLeft" activeCell="C611" sqref="C611:C616"/>
+    <sheetView tabSelected="1" topLeftCell="A533" workbookViewId="0">
+      <pane ySplit="20820" topLeftCell="A613"/>
+      <selection activeCell="B332" sqref="B332"/>
+      <selection pane="bottomLeft" activeCell="C616" sqref="C616:C621"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10793,6 +10793,7 @@
         <f>_xlfn.XLOOKUP(I198,$B$2:$B$614,$A$2:$A$614,65535)</f>
         <v>65535</v>
       </c>
+      <c r="I198" s="1"/>
       <c r="J198">
         <f t="shared" ref="J198:K198" si="190">C198-C455</f>
         <v>-8</v>

--- a/Arrays.xlsx
+++ b/Arrays.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonholmes/projects/SummerFX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B306B0-D39D-F644-901E-A735BE40CAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7104713-DB0E-A340-85BB-F57A5D91C6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18520" yWindow="1240" windowWidth="36840" windowHeight="29660" xr2:uid="{50E1C641-7614-0542-B3D9-BEFC89310226}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="830">
   <si>
     <t>Man_StandingJump_FW_UP_01</t>
   </si>
@@ -2518,6 +2518,15 @@
   </si>
   <si>
     <t>Man_Die_BWD_LH_04</t>
+  </si>
+  <si>
+    <t>uint16_t mapX[] = { 140</t>
+  </si>
+  <si>
+    <t>uint16_t mapY[] = {  14</t>
+  </si>
+  <si>
+    <t>140,14,</t>
   </si>
 </sst>
 </file>
@@ -2947,10 +2956,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB0A31D-4C97-AD45-A228-2A94A1C41CE1}">
   <dimension ref="A1:Q832"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A752" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="20820" topLeftCell="A824"/>
-      <selection activeCell="C789" sqref="C789"/>
-      <selection pane="bottomLeft" activeCell="C827" sqref="C827:C832"/>
+      <selection activeCell="P2" sqref="P2"/>
+      <selection pane="bottomLeft" activeCell="C832" sqref="C827:C832"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -39876,10 +39885,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{608CA02D-1AE4-9046-86F7-769C21B1A1C7}">
-  <dimension ref="A1:V20"/>
+  <dimension ref="A1:V30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:V20"/>
+      <selection activeCell="Q30" sqref="D30:Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -39976,7 +39985,153 @@
         <v>6</v>
       </c>
     </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>827</v>
+      </c>
+      <c r="E27">
+        <v>63</v>
+      </c>
+      <c r="F27">
+        <v>24</v>
+      </c>
+      <c r="G27">
+        <v>54</v>
+      </c>
+      <c r="H27">
+        <v>180</v>
+      </c>
+      <c r="I27">
+        <v>62</v>
+      </c>
+      <c r="J27">
+        <v>151</v>
+      </c>
+      <c r="K27">
+        <v>209</v>
+      </c>
+      <c r="L27">
+        <v>284</v>
+      </c>
+      <c r="M27">
+        <v>332</v>
+      </c>
+      <c r="N27">
+        <v>359</v>
+      </c>
+      <c r="O27">
+        <v>354</v>
+      </c>
+      <c r="P27">
+        <v>290</v>
+      </c>
+      <c r="Q27">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>828</v>
+      </c>
+      <c r="E28">
+        <v>96</v>
+      </c>
+      <c r="F28">
+        <v>166</v>
+      </c>
+      <c r="G28">
+        <v>239</v>
+      </c>
+      <c r="H28">
+        <v>212</v>
+      </c>
+      <c r="I28">
+        <v>336</v>
+      </c>
+      <c r="J28">
+        <v>266</v>
+      </c>
+      <c r="K28">
+        <v>365</v>
+      </c>
+      <c r="L28">
+        <v>273</v>
+      </c>
+      <c r="M28">
+        <v>338</v>
+      </c>
+      <c r="N28">
+        <v>200</v>
+      </c>
+      <c r="O28">
+        <v>129</v>
+      </c>
+      <c r="P28">
+        <v>61</v>
+      </c>
+      <c r="Q28">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>829</v>
+      </c>
+      <c r="E30" t="str">
+        <f>_xlfn.CONCAT(E27,",",E28,",")</f>
+        <v>63,96,</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" ref="F30:Q30" si="0">_xlfn.CONCAT(F27,",",F28,",")</f>
+        <v>24,166,</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="0"/>
+        <v>54,239,</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="0"/>
+        <v>180,212,</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="0"/>
+        <v>62,336,</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="0"/>
+        <v>151,266,</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="0"/>
+        <v>209,365,</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="0"/>
+        <v>284,273,</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="0"/>
+        <v>332,338,</v>
+      </c>
+      <c r="N30" t="str">
+        <f t="shared" si="0"/>
+        <v>359,200,</v>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" si="0"/>
+        <v>354,129,</v>
+      </c>
+      <c r="P30" t="str">
+        <f t="shared" si="0"/>
+        <v>290,61,</v>
+      </c>
+      <c r="Q30" t="str">
+        <f t="shared" si="0"/>
+        <v>224,108,</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Arrays.xlsx
+++ b/Arrays.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonholmes/projects/SummerFX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D92B8A-BA3B-AB4F-8BB9-CB5BFB89A8F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B2746A-9154-4D4C-A047-999BB205D967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17940" yWindow="1240" windowWidth="36840" windowHeight="29660" xr2:uid="{50E1C641-7614-0542-B3D9-BEFC89310226}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="958">
   <si>
     <t>Man_StandingJump_FW_UP_01</t>
   </si>
@@ -2815,6 +2815,102 @@
   </si>
   <si>
     <t>Man_Die_Arrow_FallBackward_LH_04</t>
+  </si>
+  <si>
+    <t>Enemy_Die_FWD_LH_01</t>
+  </si>
+  <si>
+    <t>Enemy_Die_FWD_LH_02</t>
+  </si>
+  <si>
+    <t>Enemy_Die_FWD_LH_03</t>
+  </si>
+  <si>
+    <t>Enemy_Die_FWD_LH_04</t>
+  </si>
+  <si>
+    <t>Enemy_Die_BWD_LH_01</t>
+  </si>
+  <si>
+    <t>Enemy_Die_BWD_LH_02</t>
+  </si>
+  <si>
+    <t>Enemy_Die_BWD_LH_03</t>
+  </si>
+  <si>
+    <t>Enemy_Die_BWD_LH_04</t>
+  </si>
+  <si>
+    <t>Enemy_Die_FWD_RH_01</t>
+  </si>
+  <si>
+    <t>Enemy_Die_FWD_RH_02</t>
+  </si>
+  <si>
+    <t>Enemy_Die_FWD_RH_03</t>
+  </si>
+  <si>
+    <t>Enemy_Die_FWD_RH_04</t>
+  </si>
+  <si>
+    <t>Enemy_Die_BWD_RH_01</t>
+  </si>
+  <si>
+    <t>Enemy_Die_BWD_RH_02</t>
+  </si>
+  <si>
+    <t>Enemy_Die_BWD_RH_03</t>
+  </si>
+  <si>
+    <t>Enemy_Die_BWD_RH_04</t>
+  </si>
+  <si>
+    <t>Enemy_Die_FWD_RH_05</t>
+  </si>
+  <si>
+    <t>Enemy_Die_FWD_RH_06</t>
+  </si>
+  <si>
+    <t>Enemy_Die_FWD_RH_07</t>
+  </si>
+  <si>
+    <t>Enemy_Die_FWD_RH_08</t>
+  </si>
+  <si>
+    <t>Enemy_Die_BWD_RH_05</t>
+  </si>
+  <si>
+    <t>Enemy_Die_BWD_RH_06</t>
+  </si>
+  <si>
+    <t>Enemy_Die_BWD_RH_07</t>
+  </si>
+  <si>
+    <t>Enemy_Die_BWD_RH_08</t>
+  </si>
+  <si>
+    <t>Enemy_Die_FWD_LH_05</t>
+  </si>
+  <si>
+    <t>Enemy_Die_FWD_LH_06</t>
+  </si>
+  <si>
+    <t>Enemy_Die_FWD_LH_07</t>
+  </si>
+  <si>
+    <t>Enemy_Die_FWD_LH_08</t>
+  </si>
+  <si>
+    <t>Enemy_Die_BWD_LH_05</t>
+  </si>
+  <si>
+    <t>Enemy_Die_BWD_LH_06</t>
+  </si>
+  <si>
+    <t>Enemy_Die_BWD_LH_07</t>
+  </si>
+  <si>
+    <t>Enemy_Die_BWD_LH_08</t>
   </si>
 </sst>
 </file>
@@ -3242,12 +3338,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB0A31D-4C97-AD45-A228-2A94A1C41CE1}">
-  <dimension ref="A1:Q920"/>
+  <dimension ref="A1:Q952"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A710" workbookViewId="0">
-      <pane ySplit="18420" topLeftCell="A906"/>
-      <selection activeCell="C756" sqref="C756"/>
-      <selection pane="bottomLeft" activeCell="C915" sqref="C915:C920"/>
+    <sheetView tabSelected="1" topLeftCell="A893" workbookViewId="0">
+      <pane ySplit="18420" topLeftCell="A939"/>
+      <selection activeCell="C936" sqref="A1:N945"/>
+      <selection pane="bottomLeft" activeCell="C947" sqref="C947:C952"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -36373,23 +36469,23 @@
       </c>
       <c r="I714" s="1"/>
       <c r="J714">
-        <f t="shared" ref="J714:J733" si="67">C714-C365</f>
+        <f t="shared" ref="J714:J725" si="67">C714-C365</f>
         <v>8</v>
       </c>
       <c r="K714">
-        <f t="shared" ref="K714:K733" si="68">D714-D365</f>
+        <f t="shared" ref="K714:K725" si="68">D714-D365</f>
         <v>0</v>
       </c>
       <c r="L714">
-        <f t="shared" ref="L714:L733" si="69">E714+E365</f>
+        <f t="shared" ref="L714:L725" si="69">E714+E365</f>
         <v>0</v>
       </c>
       <c r="M714">
-        <f t="shared" ref="M714:M733" si="70">F714+F365</f>
+        <f t="shared" ref="M714:M725" si="70">F714+F365</f>
         <v>0</v>
       </c>
       <c r="N714">
-        <f t="shared" ref="N714:N733" si="71">G714+G365</f>
+        <f t="shared" ref="N714:N725" si="71">G714+G365</f>
         <v>0</v>
       </c>
     </row>
@@ -43101,7 +43197,7 @@
     </row>
     <row r="900" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A900">
-        <f t="shared" ref="A900:A913" si="79">A899+1</f>
+        <f t="shared" ref="A900:A945" si="79">A899+1</f>
         <v>898</v>
       </c>
       <c r="B900" s="1" t="s">
@@ -43469,68 +43565,1024 @@
         <v>895</v>
       </c>
     </row>
-    <row r="913" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A913">
         <f t="shared" si="79"/>
         <v>911</v>
       </c>
       <c r="B913" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="C913">
+        <v>56</v>
+      </c>
+      <c r="D913">
+        <v>0</v>
+      </c>
+      <c r="E913">
+        <v>0</v>
+      </c>
+      <c r="F913">
+        <v>0</v>
+      </c>
+      <c r="G913">
+        <v>0</v>
+      </c>
+      <c r="H913">
+        <f t="shared" ref="H913:H944" si="80">_xlfn.XLOOKUP(I913,$B$2:$B$912,$A$2:$A$912,65535)</f>
+        <v>65535</v>
+      </c>
+      <c r="I913" s="1"/>
+    </row>
+    <row r="914" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A914">
+        <f t="shared" si="79"/>
+        <v>912</v>
+      </c>
+      <c r="B914" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="C914">
+        <f>C913+1</f>
+        <v>57</v>
+      </c>
+      <c r="D914">
+        <v>0</v>
+      </c>
+      <c r="E914">
+        <v>0</v>
+      </c>
+      <c r="F914">
+        <v>0</v>
+      </c>
+      <c r="G914">
+        <v>0</v>
+      </c>
+      <c r="H914">
+        <f t="shared" si="80"/>
+        <v>65535</v>
+      </c>
+      <c r="I914" s="1"/>
+    </row>
+    <row r="915" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A915">
+        <f t="shared" si="79"/>
+        <v>913</v>
+      </c>
+      <c r="B915" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="C915">
+        <f t="shared" ref="C915:C944" si="81">C914+1</f>
+        <v>58</v>
+      </c>
+      <c r="D915">
+        <v>0</v>
+      </c>
+      <c r="E915">
+        <v>0</v>
+      </c>
+      <c r="F915">
+        <v>0</v>
+      </c>
+      <c r="G915">
+        <v>0</v>
+      </c>
+      <c r="H915">
+        <f t="shared" si="80"/>
+        <v>65535</v>
+      </c>
+      <c r="I915" s="1"/>
+    </row>
+    <row r="916" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A916">
+        <f t="shared" si="79"/>
+        <v>914</v>
+      </c>
+      <c r="B916" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="C916">
+        <f t="shared" si="81"/>
+        <v>59</v>
+      </c>
+      <c r="D916">
+        <v>0</v>
+      </c>
+      <c r="E916">
+        <v>0</v>
+      </c>
+      <c r="F916">
+        <v>0</v>
+      </c>
+      <c r="G916">
+        <v>0</v>
+      </c>
+      <c r="H916">
+        <f t="shared" si="80"/>
+        <v>65535</v>
+      </c>
+      <c r="I916" s="1"/>
+    </row>
+    <row r="917" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A917">
+        <f t="shared" si="79"/>
+        <v>915</v>
+      </c>
+      <c r="B917" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="C917">
+        <f t="shared" si="81"/>
+        <v>60</v>
+      </c>
+      <c r="D917">
+        <v>0</v>
+      </c>
+      <c r="E917">
+        <v>0</v>
+      </c>
+      <c r="F917">
+        <v>0</v>
+      </c>
+      <c r="G917">
+        <v>0</v>
+      </c>
+      <c r="H917">
+        <f t="shared" si="80"/>
+        <v>65535</v>
+      </c>
+      <c r="I917" s="1"/>
+    </row>
+    <row r="918" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A918">
+        <f t="shared" si="79"/>
+        <v>916</v>
+      </c>
+      <c r="B918" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="C918">
+        <f t="shared" si="81"/>
+        <v>61</v>
+      </c>
+      <c r="D918">
+        <v>0</v>
+      </c>
+      <c r="E918">
+        <v>0</v>
+      </c>
+      <c r="F918">
+        <v>0</v>
+      </c>
+      <c r="G918">
+        <v>0</v>
+      </c>
+      <c r="H918">
+        <f t="shared" si="80"/>
+        <v>65535</v>
+      </c>
+      <c r="I918" s="1"/>
+    </row>
+    <row r="919" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A919">
+        <f t="shared" si="79"/>
+        <v>917</v>
+      </c>
+      <c r="B919" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="C919">
+        <f t="shared" si="81"/>
+        <v>62</v>
+      </c>
+      <c r="D919">
+        <v>0</v>
+      </c>
+      <c r="E919">
+        <v>0</v>
+      </c>
+      <c r="F919">
+        <v>0</v>
+      </c>
+      <c r="G919">
+        <v>0</v>
+      </c>
+      <c r="H919">
+        <f t="shared" si="80"/>
+        <v>65535</v>
+      </c>
+      <c r="I919" s="1"/>
+    </row>
+    <row r="920" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A920">
+        <f t="shared" si="79"/>
+        <v>918</v>
+      </c>
+      <c r="B920" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="C920">
+        <f t="shared" si="81"/>
+        <v>63</v>
+      </c>
+      <c r="D920">
+        <v>0</v>
+      </c>
+      <c r="E920">
+        <v>0</v>
+      </c>
+      <c r="F920">
+        <v>0</v>
+      </c>
+      <c r="G920">
+        <v>0</v>
+      </c>
+      <c r="H920">
+        <f t="shared" si="80"/>
+        <v>65535</v>
+      </c>
+      <c r="I920" s="1"/>
+    </row>
+    <row r="921" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A921">
+        <f t="shared" si="79"/>
+        <v>919</v>
+      </c>
+      <c r="B921" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="C921">
+        <v>32</v>
+      </c>
+      <c r="D921">
+        <v>0</v>
+      </c>
+      <c r="E921">
+        <v>0</v>
+      </c>
+      <c r="F921">
+        <v>0</v>
+      </c>
+      <c r="G921">
+        <v>0</v>
+      </c>
+      <c r="H921">
+        <f t="shared" si="80"/>
+        <v>65535</v>
+      </c>
+      <c r="I921" s="1"/>
+    </row>
+    <row r="922" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A922">
+        <f t="shared" si="79"/>
+        <v>920</v>
+      </c>
+      <c r="B922" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="C922">
+        <f t="shared" si="81"/>
+        <v>33</v>
+      </c>
+      <c r="D922">
+        <v>0</v>
+      </c>
+      <c r="E922">
+        <v>0</v>
+      </c>
+      <c r="F922">
+        <v>0</v>
+      </c>
+      <c r="G922">
+        <v>0</v>
+      </c>
+      <c r="H922">
+        <f t="shared" si="80"/>
+        <v>65535</v>
+      </c>
+      <c r="I922" s="1"/>
+    </row>
+    <row r="923" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A923">
+        <f t="shared" si="79"/>
+        <v>921</v>
+      </c>
+      <c r="B923" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="C923">
+        <f t="shared" si="81"/>
+        <v>34</v>
+      </c>
+      <c r="D923">
+        <v>0</v>
+      </c>
+      <c r="E923">
+        <v>0</v>
+      </c>
+      <c r="F923">
+        <v>0</v>
+      </c>
+      <c r="G923">
+        <v>0</v>
+      </c>
+      <c r="H923">
+        <f t="shared" si="80"/>
+        <v>65535</v>
+      </c>
+      <c r="I923" s="1"/>
+    </row>
+    <row r="924" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A924">
+        <f t="shared" si="79"/>
+        <v>922</v>
+      </c>
+      <c r="B924" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="C924">
+        <f t="shared" si="81"/>
+        <v>35</v>
+      </c>
+      <c r="D924">
+        <v>0</v>
+      </c>
+      <c r="E924">
+        <v>0</v>
+      </c>
+      <c r="F924">
+        <v>0</v>
+      </c>
+      <c r="G924">
+        <v>0</v>
+      </c>
+      <c r="H924">
+        <f t="shared" si="80"/>
+        <v>65535</v>
+      </c>
+      <c r="I924" s="1"/>
+    </row>
+    <row r="925" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A925">
+        <f t="shared" si="79"/>
+        <v>923</v>
+      </c>
+      <c r="B925" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="C925">
+        <f t="shared" si="81"/>
+        <v>36</v>
+      </c>
+      <c r="D925">
+        <v>0</v>
+      </c>
+      <c r="E925">
+        <v>0</v>
+      </c>
+      <c r="F925">
+        <v>0</v>
+      </c>
+      <c r="G925">
+        <v>0</v>
+      </c>
+      <c r="H925">
+        <f t="shared" si="80"/>
+        <v>65535</v>
+      </c>
+      <c r="I925" s="1"/>
+    </row>
+    <row r="926" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A926">
+        <f t="shared" si="79"/>
+        <v>924</v>
+      </c>
+      <c r="B926" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="C926">
+        <f t="shared" si="81"/>
+        <v>37</v>
+      </c>
+      <c r="D926">
+        <v>0</v>
+      </c>
+      <c r="E926">
+        <v>0</v>
+      </c>
+      <c r="F926">
+        <v>0</v>
+      </c>
+      <c r="G926">
+        <v>0</v>
+      </c>
+      <c r="H926">
+        <f t="shared" si="80"/>
+        <v>65535</v>
+      </c>
+      <c r="I926" s="1"/>
+    </row>
+    <row r="927" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A927">
+        <f t="shared" si="79"/>
+        <v>925</v>
+      </c>
+      <c r="B927" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="C927">
+        <f t="shared" si="81"/>
+        <v>38</v>
+      </c>
+      <c r="D927">
+        <v>0</v>
+      </c>
+      <c r="E927">
+        <v>0</v>
+      </c>
+      <c r="F927">
+        <v>0</v>
+      </c>
+      <c r="G927">
+        <v>0</v>
+      </c>
+      <c r="H927">
+        <f t="shared" si="80"/>
+        <v>65535</v>
+      </c>
+      <c r="I927" s="1"/>
+    </row>
+    <row r="928" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A928">
+        <f t="shared" si="79"/>
+        <v>926</v>
+      </c>
+      <c r="B928" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="C928">
+        <f t="shared" si="81"/>
+        <v>39</v>
+      </c>
+      <c r="D928">
+        <v>0</v>
+      </c>
+      <c r="E928">
+        <v>0</v>
+      </c>
+      <c r="F928">
+        <v>0</v>
+      </c>
+      <c r="G928">
+        <v>0</v>
+      </c>
+      <c r="H928">
+        <f t="shared" si="80"/>
+        <v>65535</v>
+      </c>
+      <c r="I928" s="1"/>
+    </row>
+    <row r="929" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A929">
+        <f t="shared" si="79"/>
+        <v>927</v>
+      </c>
+      <c r="B929" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="C929">
+        <v>48</v>
+      </c>
+      <c r="D929">
+        <v>0</v>
+      </c>
+      <c r="E929">
+        <v>0</v>
+      </c>
+      <c r="F929">
+        <v>0</v>
+      </c>
+      <c r="G929">
+        <v>0</v>
+      </c>
+      <c r="H929">
+        <f t="shared" si="80"/>
+        <v>65535</v>
+      </c>
+      <c r="I929" s="1"/>
+    </row>
+    <row r="930" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A930">
+        <f t="shared" si="79"/>
+        <v>928</v>
+      </c>
+      <c r="B930" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="C930">
+        <f t="shared" si="81"/>
+        <v>49</v>
+      </c>
+      <c r="D930">
+        <v>0</v>
+      </c>
+      <c r="E930">
+        <v>0</v>
+      </c>
+      <c r="F930">
+        <v>0</v>
+      </c>
+      <c r="G930">
+        <v>0</v>
+      </c>
+      <c r="H930">
+        <f t="shared" si="80"/>
+        <v>65535</v>
+      </c>
+      <c r="I930" s="1"/>
+    </row>
+    <row r="931" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A931">
+        <f t="shared" si="79"/>
+        <v>929</v>
+      </c>
+      <c r="B931" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="C931">
+        <f t="shared" si="81"/>
+        <v>50</v>
+      </c>
+      <c r="D931">
+        <v>0</v>
+      </c>
+      <c r="E931">
+        <v>0</v>
+      </c>
+      <c r="F931">
+        <v>0</v>
+      </c>
+      <c r="G931">
+        <v>0</v>
+      </c>
+      <c r="H931">
+        <f t="shared" si="80"/>
+        <v>65535</v>
+      </c>
+      <c r="I931" s="1"/>
+    </row>
+    <row r="932" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A932">
+        <f t="shared" si="79"/>
+        <v>930</v>
+      </c>
+      <c r="B932" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="C932">
+        <f t="shared" si="81"/>
+        <v>51</v>
+      </c>
+      <c r="D932">
+        <v>0</v>
+      </c>
+      <c r="E932">
+        <v>0</v>
+      </c>
+      <c r="F932">
+        <v>0</v>
+      </c>
+      <c r="G932">
+        <v>0</v>
+      </c>
+      <c r="H932">
+        <f t="shared" si="80"/>
+        <v>65535</v>
+      </c>
+      <c r="I932" s="1"/>
+    </row>
+    <row r="933" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A933">
+        <f t="shared" si="79"/>
+        <v>931</v>
+      </c>
+      <c r="B933" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="C933">
+        <f t="shared" si="81"/>
+        <v>52</v>
+      </c>
+      <c r="D933">
+        <v>0</v>
+      </c>
+      <c r="E933">
+        <v>0</v>
+      </c>
+      <c r="F933">
+        <v>0</v>
+      </c>
+      <c r="G933">
+        <v>0</v>
+      </c>
+      <c r="H933">
+        <f t="shared" si="80"/>
+        <v>65535</v>
+      </c>
+      <c r="I933" s="1"/>
+    </row>
+    <row r="934" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A934">
+        <f t="shared" si="79"/>
+        <v>932</v>
+      </c>
+      <c r="B934" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="C934">
+        <f t="shared" si="81"/>
+        <v>53</v>
+      </c>
+      <c r="D934">
+        <v>0</v>
+      </c>
+      <c r="E934">
+        <v>0</v>
+      </c>
+      <c r="F934">
+        <v>0</v>
+      </c>
+      <c r="G934">
+        <v>0</v>
+      </c>
+      <c r="H934">
+        <f t="shared" si="80"/>
+        <v>65535</v>
+      </c>
+      <c r="I934" s="1"/>
+    </row>
+    <row r="935" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A935">
+        <f t="shared" si="79"/>
+        <v>933</v>
+      </c>
+      <c r="B935" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="C935">
+        <f t="shared" si="81"/>
+        <v>54</v>
+      </c>
+      <c r="D935">
+        <v>0</v>
+      </c>
+      <c r="E935">
+        <v>0</v>
+      </c>
+      <c r="F935">
+        <v>0</v>
+      </c>
+      <c r="G935">
+        <v>0</v>
+      </c>
+      <c r="H935">
+        <f t="shared" si="80"/>
+        <v>65535</v>
+      </c>
+      <c r="I935" s="1"/>
+    </row>
+    <row r="936" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A936">
+        <f t="shared" si="79"/>
+        <v>934</v>
+      </c>
+      <c r="B936" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="C936">
+        <f t="shared" si="81"/>
+        <v>55</v>
+      </c>
+      <c r="D936">
+        <v>0</v>
+      </c>
+      <c r="E936">
+        <v>0</v>
+      </c>
+      <c r="F936">
+        <v>0</v>
+      </c>
+      <c r="G936">
+        <v>0</v>
+      </c>
+      <c r="H936">
+        <f t="shared" si="80"/>
+        <v>65535</v>
+      </c>
+      <c r="I936" s="1"/>
+    </row>
+    <row r="937" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A937">
+        <f t="shared" si="79"/>
+        <v>935</v>
+      </c>
+      <c r="B937" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="C937">
+        <v>40</v>
+      </c>
+      <c r="D937">
+        <v>0</v>
+      </c>
+      <c r="E937">
+        <v>0</v>
+      </c>
+      <c r="F937">
+        <v>0</v>
+      </c>
+      <c r="G937">
+        <v>0</v>
+      </c>
+      <c r="H937">
+        <f t="shared" si="80"/>
+        <v>65535</v>
+      </c>
+      <c r="I937" s="1"/>
+    </row>
+    <row r="938" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A938">
+        <f t="shared" si="79"/>
+        <v>936</v>
+      </c>
+      <c r="B938" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="C938">
+        <f t="shared" si="81"/>
+        <v>41</v>
+      </c>
+      <c r="D938">
+        <v>0</v>
+      </c>
+      <c r="E938">
+        <v>0</v>
+      </c>
+      <c r="F938">
+        <v>0</v>
+      </c>
+      <c r="G938">
+        <v>0</v>
+      </c>
+      <c r="H938">
+        <f t="shared" si="80"/>
+        <v>65535</v>
+      </c>
+      <c r="I938" s="1"/>
+    </row>
+    <row r="939" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A939">
+        <f t="shared" si="79"/>
+        <v>937</v>
+      </c>
+      <c r="B939" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="C939">
+        <f t="shared" si="81"/>
+        <v>42</v>
+      </c>
+      <c r="D939">
+        <v>0</v>
+      </c>
+      <c r="E939">
+        <v>0</v>
+      </c>
+      <c r="F939">
+        <v>0</v>
+      </c>
+      <c r="G939">
+        <v>0</v>
+      </c>
+      <c r="H939">
+        <f t="shared" si="80"/>
+        <v>65535</v>
+      </c>
+      <c r="I939" s="1"/>
+    </row>
+    <row r="940" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A940">
+        <f t="shared" si="79"/>
+        <v>938</v>
+      </c>
+      <c r="B940" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="C940">
+        <f t="shared" si="81"/>
+        <v>43</v>
+      </c>
+      <c r="D940">
+        <v>0</v>
+      </c>
+      <c r="E940">
+        <v>0</v>
+      </c>
+      <c r="F940">
+        <v>0</v>
+      </c>
+      <c r="G940">
+        <v>0</v>
+      </c>
+      <c r="H940">
+        <f t="shared" si="80"/>
+        <v>65535</v>
+      </c>
+      <c r="I940" s="1"/>
+    </row>
+    <row r="941" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A941">
+        <f t="shared" si="79"/>
+        <v>939</v>
+      </c>
+      <c r="B941" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="C941">
+        <f t="shared" si="81"/>
+        <v>44</v>
+      </c>
+      <c r="D941">
+        <v>0</v>
+      </c>
+      <c r="E941">
+        <v>0</v>
+      </c>
+      <c r="F941">
+        <v>0</v>
+      </c>
+      <c r="G941">
+        <v>0</v>
+      </c>
+      <c r="H941">
+        <f t="shared" si="80"/>
+        <v>65535</v>
+      </c>
+      <c r="I941" s="1"/>
+    </row>
+    <row r="942" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A942">
+        <f t="shared" si="79"/>
+        <v>940</v>
+      </c>
+      <c r="B942" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="C942">
+        <f t="shared" si="81"/>
+        <v>45</v>
+      </c>
+      <c r="D942">
+        <v>0</v>
+      </c>
+      <c r="E942">
+        <v>0</v>
+      </c>
+      <c r="F942">
+        <v>0</v>
+      </c>
+      <c r="G942">
+        <v>0</v>
+      </c>
+      <c r="H942">
+        <f t="shared" si="80"/>
+        <v>65535</v>
+      </c>
+      <c r="I942" s="1"/>
+    </row>
+    <row r="943" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A943">
+        <f t="shared" si="79"/>
+        <v>941</v>
+      </c>
+      <c r="B943" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="C943">
+        <f t="shared" si="81"/>
+        <v>46</v>
+      </c>
+      <c r="D943">
+        <v>0</v>
+      </c>
+      <c r="E943">
+        <v>0</v>
+      </c>
+      <c r="F943">
+        <v>0</v>
+      </c>
+      <c r="G943">
+        <v>0</v>
+      </c>
+      <c r="H943">
+        <f t="shared" si="80"/>
+        <v>65535</v>
+      </c>
+      <c r="I943" s="1"/>
+    </row>
+    <row r="944" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A944">
+        <f t="shared" si="79"/>
+        <v>942</v>
+      </c>
+      <c r="B944" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="C944">
+        <f t="shared" si="81"/>
+        <v>47</v>
+      </c>
+      <c r="D944">
+        <v>0</v>
+      </c>
+      <c r="E944">
+        <v>0</v>
+      </c>
+      <c r="F944">
+        <v>0</v>
+      </c>
+      <c r="G944">
+        <v>0</v>
+      </c>
+      <c r="H944">
+        <f t="shared" si="80"/>
+        <v>65535</v>
+      </c>
+      <c r="I944" s="1"/>
+    </row>
+    <row r="945" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A945">
+        <f t="shared" si="79"/>
+        <v>943</v>
+      </c>
+      <c r="B945" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="C913">
+      <c r="C945">
         <v>7</v>
       </c>
-      <c r="D913">
+      <c r="D945">
         <v>15</v>
       </c>
-      <c r="E913">
-        <v>0</v>
-      </c>
-      <c r="F913">
-        <v>0</v>
-      </c>
-      <c r="G913">
-        <v>0</v>
-      </c>
-      <c r="H913">
-        <f>_xlfn.XLOOKUP(I913,$B$2:$B$798,$A$2:$A$798,65535)</f>
-        <v>65535</v>
-      </c>
-    </row>
-    <row r="915" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C915" t="str">
-        <f>_xlfn.CONCAT("uint8_t StanceImgIdx[] = {",_xlfn.TEXTJOIN(", ",FALSE,C$2:C913),"};")</f>
-        <v>uint8_t StanceImgIdx[] = {0, 1, 2, 3, 3, 0, 0, 0, 0, 1, 0, 3, 0, 0, 0, 0, 255, 5, 6, 5, 6, 0, 17, 19, 17, 19, 17, 4, 5, 6, 5, 5, 6, 5, 4, 17, 19, 17, 19, 17, 0, 6, 5, 6, 5, 13, 14, 13, 14, 0, 17, 19, 17, 19, 17, 12, 13, 14, 13, 13, 14, 13, 12, 17, 19, 17, 19, 17, 0, 14, 13, 14, 13, 16, 16, 0, 0, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 2, 1, 7, 5, 4, 5, 6, 5, 4, 5, 6, 5, 4, 5, 6, 5, 4, 5, 6, 5, 4, 5, 6, 5, 4, 5, 6, 5, 4, 5, 6, 5, 4, 5, 6, 5, 5, 4, 5, 5, 5, 5, 5, 5, 5, 5, 7, 5, 4, 5, 5, 5, 5, 6, 5, 5, 7, 5, 4, 4, 4, 4, 5, 5, 4, 4, 4, 4, 4, 5, 4, 4, 4, 4, 4, 4, 6, 5, 4, 4, 4, 4, 4, 4, 6, 5, 4, 4, 4, 4, 4, 4, 4, 4, 4, 6, 5, 4, 4, 4, 4, 4, 4, 4, 4, 5, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 6, 5, 4, 4, 4, 6, 5, 0, 32, 33, 34, 32, 33, 34, 32, 33, 34, 34, 33, 0, 4, 4, 34, 34, 34, 34, 34, 0, 0, 0, 0, 34, 34, 34, 34, 34, 34, 34, 0, 0, 0, 0, 0, 0, 0, 34, 34, 34, 34, 34, 34, 34, 34, 34, 5, 4, 5, 6, 5, 36, 36, 36, 36, 5, 5, 5, 4, 5, 6, 5, 36, 36, 36, 36, 36, 36, 36, 5, 5, 4, 5, 6, 5, 36, 36, 36, 36, 36, 36, 36, 5, 37, 38, 39, 38, 37, 38, 39, 38, 37, 38, 39, 40, 41, 42, 41, 40, 41, 42, 41, 40, 41, 42, 4, 4, 4, 4, 4, 5, 4, 5, 4, 5, 4, 5, 5, 4, 4, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 4, 4, 6, 7, 5, 5, 4, 4, 4, 4, 4, 6, 5, 5, 4, 4, 4, 4, 4, 6, 19, 120, 121, 122, 123, 122, 121, 120, 121, 120, 121, 120, 121, 120, 121, 120, 121, 120, 120, 120, 120, 121, 120, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 5, 5, 100, 101, 102, 103, 96, 97, 98, 99, 20, 21, 22, 23, 112, 113, 114, 115, 20, 21, 22, 23, 8, 9, 10, 11, 9, 8, 8, 8, 8, 11, 8, 9, 8, 8, 8, 8, 8, 13, 12, 13, 14, 13, 12, 13, 14, 13, 12, 13, 14, 13, 12, 13, 14, 13, 12, 13, 14, 13, 12, 13, 14, 13, 12, 13, 14, 13, 12, 13, 14, 13, 13, 12, 13, 13, 13, 13, 13, 13, 13, 13, 15, 13, 13, 13, 13, 13, 13, 14, 13, 13, 15, 13, 12, 12, 12, 12, 13, 13, 12, 12, 12, 12, 12, 13, 12, 12, 12, 12, 12, 12, 14, 13, 12, 12, 12, 12, 12, 12, 14, 13, 12, 12, 12, 12, 12, 12, 12, 12, 12, 14, 13, 12, 12, 12, 12, 12, 12, 12, 12, 13, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 14, 13, 12, 12, 12, 14, 13, 0, 33, 32, 34, 33, 32, 34, 33, 32, 34, 34, 32, 0, 12, 12, 34, 34, 34, 34, 34, 0, 0, 0, 0, 34, 34, 34, 34, 34, 34, 34, 0, 0, 0, 0, 0, 0, 0, 34, 34, 34, 34, 34, 34, 34, 34, 34, 13, 12, 13, 14, 13, 44, 44, 44, 44, 13, 13, 13, 12, 13, 14, 13, 44, 44, 44, 44, 44, 44, 44, 13, 13, 12, 13, 14, 13, 44, 44, 44, 44, 44, 44, 44, 13, 45, 46, 47, 46, 45, 46, 47, 46, 45, 46, 47, 48, 49, 50, 49, 48, 49, 50, 49, 48, 49, 50, 12, 12, 12, 12, 12, 13, 12, 13, 12, 13, 12, 13, 13, 12, 12, 60, 60, 60, 60, 60, 60, 60, 60, 60, 60, 60, 60, 60, 12, 12, 14, 15, 13, 13, 12, 12, 12, 12, 12, 14, 13, 13, 12, 12, 12, 12, 12, 14, 19, 124, 125, 126, 127, 126, 125, 124, 125, 124, 125, 124, 125, 124, 125, 124, 125, 124, 124, 124, 124, 125, 124, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 13, 13, 108, 109, 110, 111, 104, 105, 106, 107, 28, 29, 30, 31, 116, 117, 118, 119, 28, 29, 30, 31, 4, 5, 5, 5, 5, 5, 5, 6, 7, 0, 1, 2, 3, 16, 17, 18, 19, 0, 20, 20, 21, 22, 22, 22, 20, 20, 20, 20, 20, 0, 1, 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 4, 5, 6, 7, 6, 5, 4, 5, 4, 5, 4, 5, 4, 5, 4, 5, 4, 4, 4, 4, 5, 4, 8, 9, 10, 11, 24, 25, 26, 27, 24, 28, 28, 29, 30, 30, 30, 28, 28, 28, 28, 28, 24, 9, 8, 8, 8, 8, 9, 9, 9, 9, 9, 9, 9, 9, 9, 12, 13, 14, 15, 14, 13, 12, 13, 12, 13, 12, 13, 12, 13, 12, 13, 12, 12, 12, 12, 13, 12, 7};</v>
-      </c>
-    </row>
-    <row r="916" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C916" t="str">
-        <f>_xlfn.CONCAT("int8_t StanceY[] = {",_xlfn.TEXTJOIN(", ",FALSE,D$2:D913),"};")</f>
-        <v>int8_t StanceY[] = {0, 0, 0, 0, 0, 4, 3, 2, -2, -3, -4, 0, 4, 3, 2, -1, 255, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, -2, -2, -2, -2, -2, -2, -2, -2, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, -2, -2, -2, -2, -2, -2, -2, -2, 0, 0, 0, -4, -4, -4, -4, 0, 0, -3, -2, 0, 1, 2, 3, 2, 1, 0, -1, -2, -3, -2, -1, 0, 1, 2, 1, 0, -1, -2, -1, 0, 0, -2, 0, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 4, 2, 2, 0, 0, 0, 0, 0, -2, -2, -2, -2, 0, -2, -2, -4, 0, 0, -1, -1, -2, -4, -4, -4, -4, -4, 0, 0, 0, 4, 3, 2, -2, -3, -4, 1, 0, -1, 4, 3, 2, 1, -1, -1, 3, 3, 2, 1, 0, -1, 0, 4, 3, 2, 0, -2, -3, -4, 0, 4, 3, 2, 0, -2, -3, -4, 0, 2, 2, 1, 1, 0, 0, -1, -1, -2, -2, 0, 2, 1, 0, -1, -1, -2, -3, -4, 0, 0, 0, 2, 1, 0, -1, -1, -2, -3, -4, -4, -4, 0, 4, 3, 2, -1, 0, 2, 2, 0, 0, 0, 0, 0, 0, 0, -2, -2, 0, 0, 4, -1, 1, 2, 1, 0, -1, -2, -1, 0, 1, 2, 3, 3, 2, 1, 0, -1, -2, -3, -3, -2, -1, 0, 1, 2, 3, 3, 4, 4, 4, 4, 0, 0, 0, 0, 0, -3, -2, -2, -2, -2, -1, -4, 0, 0, 0, 0, -3, -2, -2, -2, -2, -2, -2, -1, 0, 0, 0, 0, 0, -3, -2, -2, -2, -2, -2, -2, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -4, 0, 2, 2, -2, -2, -1, 0, -1, 0, 0, 1, 0, 1, 2, 1, 0, 1, -2, -2, 0, 0, 1, 1, 1, 0, -1, -1, -1, 0, 1, 1, 1, 0, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 2, 1, -1, -2, -3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4, 3, 2, -2, -3, -4, 0, 4, 3, 2, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 4, 2, 2, 0, 0, 0, 0, 0, -2, -2, -2, -2, 0, -2, -2, -4, 0, 0, -1, -1, -2, -4, -4, -4, -4, -4, 0, 0, 0, 4, 3, 2, -2, -3, -4, 1, 0, -1, 4, 3, 2, 1, -1, -1, 3, 3, 2, 1, 0, -1, 0, 4, 3, 2, 0, -2, -3, -4, 0, 4, 3, 2, 0, -2, -3, -4, 0, 2, 2, 1, 1, 0, 0, -1, -1, -2, -2, 0, 2, 1, 0, -1, -1, -2, -3, -4, 0, 0, 0, 2, 1, 0, -1, -1, -2, -3, -4, -4, -4, 0, 4, 3, 2, -1, 0, 2, 2, 0, 0, 0, 0, 0, 0, 0, -2, -2, 0, 0, 4, -1, 1, 2, 1, 0, -1, -2, -1, 0, 1, 2, 3, 3, 2, 1, 0, -1, -2, -3, -3, -2, -1, 0, 1, 2, 3, 3, 4, 4, 4, 4, 0, 0, 0, 0, 0, -3, -2, -2, -2, -2, -1, -4, 0, 0, 0, 0, -3, -2, -2, -2, -2, -2, -2, -1, 0, 0, 0, 0, 0, -3, -2, -2, -2, -2, -2, -2, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -4, 0, 2, 2, -2, -2, -1, 0, -1, 0, 0, 1, 0, 1, 2, 1, 0, 1, -2, -2, 0, 0, 1, 1, 1, 0, -1, -1, -1, 0, 1, 1, 1, 0, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 2, 1, -1, -2, -3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -2, -1, 0, 1, 2, 4, 7, 11, 15, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 2, 1, -1, -2, -3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 2, 1, -1, -2, -3, 15};</v>
-      </c>
-    </row>
-    <row r="917" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C917" t="str">
-        <f>_xlfn.CONCAT("int8_t xForeground[] = {",_xlfn.TEXTJOIN(", ",FALSE,E$2:E913),"};")</f>
-        <v>int8_t xForeground[] = {0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -5, -5, 0, 0, 0, 0, 0, 0, 0, 0, 0, -5, -5, -5, -5, -5, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -5, -5, 5, 5, 0, 0, 0, 0, 0, 0, 0, 0, 0, 5, 5, 5, 5, 5, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 5, 5, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -5, -5, -5, -5, -5, -5, -5, 0, -5, -5, -5, 0, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, 0, 0, 0, 0, -5, -5, -5, -5, -5, -5, -5, -5, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -5, -5, -5, -5, 0, -5, -5, -5, -5, 0, 0, -5, -5, -5, -5, 0, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, 0, -5, -5, -5, -5, -5, -5, -5, -5, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, 0, -5, -5, -8, -8, -8, -10, -10, -10, -10, -10, -10, -8, -8, -8, -5, -5, -5, -5, -5, 0, 0, -5, -5, -5, -5, -2, -2, -5, 0, -5, -5, -5, -5, -2, -2, -5, 0, 0, 0, 0, 0, 0, 0, -5, -5, -5, -5, 5, 5, 5, 5, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 10, -10, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 5, 5, 5, 5, 5, 5, 5, 0, 5, 5, 5, 0, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 0, 0, 0, 0, 5, 5, 5, 5, 5, 5, 5, 5, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 5, 5, 5, 5, 0, 5, 5, 5, 5, 0, 0, 5, 5, 5, 5, 0, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 0, 5, 5, 5, 5, 5, 5, 5, 5, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 0, 5, 5, 8, 8, 8, 10, 10, 10, 10, 10, 10, 8, 8, 8, 5, 5, 5, 5, 5, 0, 0, 5, 5, 5, 5, 2, 2, 5, 0, 5, 5, 5, 5, 2, 2, 5, 0, 0, 0, 0, 0, 0, 0, 5, 5, 5, 5, -5, -5, -5, -5, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -10, 10, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 5, 5, 5, 5, -5, -5, -5, -5, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -5, -5, -5, -5, 5, 5, 5, 5, 0, 0, 0, 0, 0, 0, 0, 0};</v>
-      </c>
-    </row>
-    <row r="918" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C918" t="str">
-        <f>_xlfn.CONCAT("int8_t xMiddleground[] = {",_xlfn.TEXTJOIN(", ",FALSE,F$2:F913),"};")</f>
-        <v>int8_t xMiddleground[] = {0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -2, -2, 0, 0, 0, 0, 0, 0, 0, 0, 0, -2, -2, 0, -2, -2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -2, -2, 2, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 0, 2, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -2, -2, -2, -2, 0, -2, -1, 0, -1, -1, -1, 0, 0, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -3, -3, -2, -2, -2, -2, -2, -2, -2, -2, -2, -3, -3, -2, -2, -2, -2, -2, -2, -2, -2, -2, -3, -3, -2, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 0, 0, -2, -2, -2, -2, -2, -2, -2, -2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -2, -2, -2, -2, 0, -2, -2, -2, -2, 0, 0, -2, -2, -2, -2, 0, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, 0, -2, -2, -2, -2, -2, -2, -2, -2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, 0, -2, -2, -3, -4, -3, -3, -4, -4, -4, -4, -4, -3, -3, -3, -2, -2, -2, -2, -2, 0, 0, -2, -2, -2, -2, -1, -1, -2, 0, -2, -2, -2, -2, -1, -1, -2, 0, 0, 0, 0, 0, 0, 0, -2, -2, -2, -2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4, -4, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 0, 2, 1, 0, 1, 1, 1, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 3, 3, 2, 2, 2, 2, 2, 2, 2, 1, 1, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 0, 2, 2, 2, 2, 0, 0, 2, 2, 2, 2, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0, 2, 2, 3, 4, 3, 3, 4, 4, 4, 4, 4, 3, 3, 3, 2, 2, 2, 2, 2, 0, 0, 2, 2, 2, 2, 1, 1, 2, 0, 2, 2, 2, 2, 1, 1, 2, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, -2, -2, -2, -2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -4, 4, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, -2, -2, -2, -2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -2, -2, -2, -2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 0, 0};</v>
-      </c>
-    </row>
-    <row r="919" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C919" t="str">
-        <f>_xlfn.CONCAT("int8_t xBackground[] = {",_xlfn.TEXTJOIN(", ",FALSE,G$2:G913),"};")</f>
-        <v>int8_t xBackground[] = {0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, 0, -1, 0, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, 0, -1, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, 0, -1, 0, 0, 0, 0, 0, 0, -1, 0, -1, -1, 0, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, 0, -1, -1, -1, -1, 0, 0, -1, -1, -1, -1, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, -1, -1, -2, -2, -2, -2, -2, -2, -2, -2, -2, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, -1, -1, -1, -1, 0, -1, -1, 0, -1, -1, -1, -1, 0, 0, -1, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, -2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 0, 1, 1, 1, 1, 0, 0, 1, 1, 1, 1, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 1, 1, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 1, 1, 1, 1, 0, 1, 1, 0, 1, 1, 1, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -2, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, 1, 1, 1, -1, 0, 0, 0, 0, 0, 0, 0, 0};</v>
-      </c>
-    </row>
-    <row r="920" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C920" t="str">
-        <f>_xlfn.CONCAT("uint16_t subsititueStance[] = {",_xlfn.TEXTJOIN(", ",FALSE,H$2:H913),"};")</f>
-        <v>uint16_t subsititueStance[] = {65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 109, 65535, 109, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 109, 65535, 65535, 65535, 65535, 65535, 109, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 109, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 109, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 234, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 109, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 109, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 51, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 439, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 458, 65535, 458, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 458, 65535, 65535, 65535, 65535, 65535, 458, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 458, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 458, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 583, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 458, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 458, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 51, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 832, 65535, 832, 65535, 65535, 65535, 832, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 832, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 889, 65535, 889, 65535, 65535, 65535, 889, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 889, 65535};</v>
+      <c r="E945">
+        <v>0</v>
+      </c>
+      <c r="F945">
+        <v>0</v>
+      </c>
+      <c r="G945">
+        <v>0</v>
+      </c>
+      <c r="H945">
+        <f>_xlfn.XLOOKUP(I945,$B$2:$B$798,$A$2:$A$798,65535)</f>
+        <v>65535</v>
+      </c>
+    </row>
+    <row r="947" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C947" t="str">
+        <f>_xlfn.CONCAT("uint8_t StanceImgIdx[] = {",_xlfn.TEXTJOIN(", ",FALSE,C$2:C945),"};")</f>
+        <v>uint8_t StanceImgIdx[] = {0, 1, 2, 3, 3, 0, 0, 0, 0, 1, 0, 3, 0, 0, 0, 0, 255, 5, 6, 5, 6, 0, 17, 19, 17, 19, 17, 4, 5, 6, 5, 5, 6, 5, 4, 17, 19, 17, 19, 17, 0, 6, 5, 6, 5, 13, 14, 13, 14, 0, 17, 19, 17, 19, 17, 12, 13, 14, 13, 13, 14, 13, 12, 17, 19, 17, 19, 17, 0, 14, 13, 14, 13, 16, 16, 0, 0, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 2, 1, 7, 5, 4, 5, 6, 5, 4, 5, 6, 5, 4, 5, 6, 5, 4, 5, 6, 5, 4, 5, 6, 5, 4, 5, 6, 5, 4, 5, 6, 5, 4, 5, 6, 5, 5, 4, 5, 5, 5, 5, 5, 5, 5, 5, 7, 5, 4, 5, 5, 5, 5, 6, 5, 5, 7, 5, 4, 4, 4, 4, 5, 5, 4, 4, 4, 4, 4, 5, 4, 4, 4, 4, 4, 4, 6, 5, 4, 4, 4, 4, 4, 4, 6, 5, 4, 4, 4, 4, 4, 4, 4, 4, 4, 6, 5, 4, 4, 4, 4, 4, 4, 4, 4, 5, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 6, 5, 4, 4, 4, 6, 5, 0, 32, 33, 34, 32, 33, 34, 32, 33, 34, 34, 33, 0, 4, 4, 34, 34, 34, 34, 34, 0, 0, 0, 0, 34, 34, 34, 34, 34, 34, 34, 0, 0, 0, 0, 0, 0, 0, 34, 34, 34, 34, 34, 34, 34, 34, 34, 5, 4, 5, 6, 5, 36, 36, 36, 36, 5, 5, 5, 4, 5, 6, 5, 36, 36, 36, 36, 36, 36, 36, 5, 5, 4, 5, 6, 5, 36, 36, 36, 36, 36, 36, 36, 5, 37, 38, 39, 38, 37, 38, 39, 38, 37, 38, 39, 40, 41, 42, 41, 40, 41, 42, 41, 40, 41, 42, 4, 4, 4, 4, 4, 5, 4, 5, 4, 5, 4, 5, 5, 4, 4, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 4, 4, 6, 7, 5, 5, 4, 4, 4, 4, 4, 6, 5, 5, 4, 4, 4, 4, 4, 6, 19, 120, 121, 122, 123, 122, 121, 120, 121, 120, 121, 120, 121, 120, 121, 120, 121, 120, 120, 120, 120, 121, 120, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 5, 5, 100, 101, 102, 103, 96, 97, 98, 99, 20, 21, 22, 23, 112, 113, 114, 115, 20, 21, 22, 23, 8, 9, 10, 11, 9, 8, 8, 8, 8, 11, 8, 9, 8, 8, 8, 8, 8, 13, 12, 13, 14, 13, 12, 13, 14, 13, 12, 13, 14, 13, 12, 13, 14, 13, 12, 13, 14, 13, 12, 13, 14, 13, 12, 13, 14, 13, 12, 13, 14, 13, 13, 12, 13, 13, 13, 13, 13, 13, 13, 13, 15, 13, 13, 13, 13, 13, 13, 14, 13, 13, 15, 13, 12, 12, 12, 12, 13, 13, 12, 12, 12, 12, 12, 13, 12, 12, 12, 12, 12, 12, 14, 13, 12, 12, 12, 12, 12, 12, 14, 13, 12, 12, 12, 12, 12, 12, 12, 12, 12, 14, 13, 12, 12, 12, 12, 12, 12, 12, 12, 13, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 14, 13, 12, 12, 12, 14, 13, 0, 33, 32, 34, 33, 32, 34, 33, 32, 34, 34, 32, 0, 12, 12, 34, 34, 34, 34, 34, 0, 0, 0, 0, 34, 34, 34, 34, 34, 34, 34, 0, 0, 0, 0, 0, 0, 0, 34, 34, 34, 34, 34, 34, 34, 34, 34, 13, 12, 13, 14, 13, 44, 44, 44, 44, 13, 13, 13, 12, 13, 14, 13, 44, 44, 44, 44, 44, 44, 44, 13, 13, 12, 13, 14, 13, 44, 44, 44, 44, 44, 44, 44, 13, 45, 46, 47, 46, 45, 46, 47, 46, 45, 46, 47, 48, 49, 50, 49, 48, 49, 50, 49, 48, 49, 50, 12, 12, 12, 12, 12, 13, 12, 13, 12, 13, 12, 13, 13, 12, 12, 60, 60, 60, 60, 60, 60, 60, 60, 60, 60, 60, 60, 60, 12, 12, 14, 15, 13, 13, 12, 12, 12, 12, 12, 14, 13, 13, 12, 12, 12, 12, 12, 14, 19, 124, 125, 126, 127, 126, 125, 124, 125, 124, 125, 124, 125, 124, 125, 124, 125, 124, 124, 124, 124, 125, 124, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 13, 13, 108, 109, 110, 111, 104, 105, 106, 107, 28, 29, 30, 31, 116, 117, 118, 119, 28, 29, 30, 31, 4, 5, 5, 5, 5, 5, 5, 6, 7, 0, 1, 2, 3, 16, 17, 18, 19, 0, 20, 20, 21, 22, 22, 22, 20, 20, 20, 20, 20, 0, 1, 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 4, 5, 6, 7, 6, 5, 4, 5, 4, 5, 4, 5, 4, 5, 4, 5, 4, 4, 4, 4, 5, 4, 8, 9, 10, 11, 24, 25, 26, 27, 24, 28, 28, 29, 30, 30, 30, 28, 28, 28, 28, 28, 24, 9, 8, 8, 8, 8, 9, 9, 9, 9, 9, 9, 9, 9, 9, 12, 13, 14, 15, 14, 13, 12, 13, 12, 13, 12, 13, 12, 13, 12, 13, 12, 12, 12, 12, 13, 12, 56, 57, 58, 59, 60, 61, 62, 63, 32, 33, 34, 35, 36, 37, 38, 39, 48, 49, 50, 51, 52, 53, 54, 55, 40, 41, 42, 43, 44, 45, 46, 47, 7};</v>
+      </c>
+    </row>
+    <row r="948" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C948" t="str">
+        <f>_xlfn.CONCAT("int8_t StanceY[] = {",_xlfn.TEXTJOIN(", ",FALSE,D$2:D945),"};")</f>
+        <v>int8_t StanceY[] = {0, 0, 0, 0, 0, 4, 3, 2, -2, -3, -4, 0, 4, 3, 2, -1, 255, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, -2, -2, -2, -2, -2, -2, -2, -2, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, -2, -2, -2, -2, -2, -2, -2, -2, 0, 0, 0, -4, -4, -4, -4, 0, 0, -3, -2, 0, 1, 2, 3, 2, 1, 0, -1, -2, -3, -2, -1, 0, 1, 2, 1, 0, -1, -2, -1, 0, 0, -2, 0, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 4, 2, 2, 0, 0, 0, 0, 0, -2, -2, -2, -2, 0, -2, -2, -4, 0, 0, -1, -1, -2, -4, -4, -4, -4, -4, 0, 0, 0, 4, 3, 2, -2, -3, -4, 1, 0, -1, 4, 3, 2, 1, -1, -1, 3, 3, 2, 1, 0, -1, 0, 4, 3, 2, 0, -2, -3, -4, 0, 4, 3, 2, 0, -2, -3, -4, 0, 2, 2, 1, 1, 0, 0, -1, -1, -2, -2, 0, 2, 1, 0, -1, -1, -2, -3, -4, 0, 0, 0, 2, 1, 0, -1, -1, -2, -3, -4, -4, -4, 0, 4, 3, 2, -1, 0, 2, 2, 0, 0, 0, 0, 0, 0, 0, -2, -2, 0, 0, 4, -1, 1, 2, 1, 0, -1, -2, -1, 0, 1, 2, 3, 3, 2, 1, 0, -1, -2, -3, -3, -2, -1, 0, 1, 2, 3, 3, 4, 4, 4, 4, 0, 0, 0, 0, 0, -3, -2, -2, -2, -2, -1, -4, 0, 0, 0, 0, -3, -2, -2, -2, -2, -2, -2, -1, 0, 0, 0, 0, 0, -3, -2, -2, -2, -2, -2, -2, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -4, 0, 2, 2, -2, -2, -1, 0, -1, 0, 0, 1, 0, 1, 2, 1, 0, 1, -2, -2, 0, 0, 1, 1, 1, 0, -1, -1, -1, 0, 1, 1, 1, 0, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 2, 1, -1, -2, -3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4, 3, 2, -2, -3, -4, 0, 4, 3, 2, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 4, 2, 2, 0, 0, 0, 0, 0, -2, -2, -2, -2, 0, -2, -2, -4, 0, 0, -1, -1, -2, -4, -4, -4, -4, -4, 0, 0, 0, 4, 3, 2, -2, -3, -4, 1, 0, -1, 4, 3, 2, 1, -1, -1, 3, 3, 2, 1, 0, -1, 0, 4, 3, 2, 0, -2, -3, -4, 0, 4, 3, 2, 0, -2, -3, -4, 0, 2, 2, 1, 1, 0, 0, -1, -1, -2, -2, 0, 2, 1, 0, -1, -1, -2, -3, -4, 0, 0, 0, 2, 1, 0, -1, -1, -2, -3, -4, -4, -4, 0, 4, 3, 2, -1, 0, 2, 2, 0, 0, 0, 0, 0, 0, 0, -2, -2, 0, 0, 4, -1, 1, 2, 1, 0, -1, -2, -1, 0, 1, 2, 3, 3, 2, 1, 0, -1, -2, -3, -3, -2, -1, 0, 1, 2, 3, 3, 4, 4, 4, 4, 0, 0, 0, 0, 0, -3, -2, -2, -2, -2, -1, -4, 0, 0, 0, 0, -3, -2, -2, -2, -2, -2, -2, -1, 0, 0, 0, 0, 0, -3, -2, -2, -2, -2, -2, -2, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -4, 0, 2, 2, -2, -2, -1, 0, -1, 0, 0, 1, 0, 1, 2, 1, 0, 1, -2, -2, 0, 0, 1, 1, 1, 0, -1, -1, -1, 0, 1, 1, 1, 0, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 2, 1, -1, -2, -3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -2, -1, 0, 1, 2, 4, 7, 11, 15, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 2, 1, -1, -2, -3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 2, 1, -1, -2, -3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 15};</v>
+      </c>
+    </row>
+    <row r="949" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C949" t="str">
+        <f>_xlfn.CONCAT("int8_t xForeground[] = {",_xlfn.TEXTJOIN(", ",FALSE,E$2:E945),"};")</f>
+        <v>int8_t xForeground[] = {0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -5, -5, 0, 0, 0, 0, 0, 0, 0, 0, 0, -5, -5, -5, -5, -5, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -5, -5, 5, 5, 0, 0, 0, 0, 0, 0, 0, 0, 0, 5, 5, 5, 5, 5, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 5, 5, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -5, -5, -5, -5, -5, -5, -5, 0, -5, -5, -5, 0, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, 0, 0, 0, 0, -5, -5, -5, -5, -5, -5, -5, -5, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -5, -5, -5, -5, 0, -5, -5, -5, -5, 0, 0, -5, -5, -5, -5, 0, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, 0, -5, -5, -5, -5, -5, -5, -5, -5, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, 0, -5, -5, -8, -8, -8, -10, -10, -10, -10, -10, -10, -8, -8, -8, -5, -5, -5, -5, -5, 0, 0, -5, -5, -5, -5, -2, -2, -5, 0, -5, -5, -5, -5, -2, -2, -5, 0, 0, 0, 0, 0, 0, 0, -5, -5, -5, -5, 5, 5, 5, 5, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 10, -10, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 5, 5, 5, 5, 5, 5, 5, 0, 5, 5, 5, 0, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 0, 0, 0, 0, 5, 5, 5, 5, 5, 5, 5, 5, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 5, 5, 5, 5, 0, 5, 5, 5, 5, 0, 0, 5, 5, 5, 5, 0, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 0, 5, 5, 5, 5, 5, 5, 5, 5, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 0, 5, 5, 8, 8, 8, 10, 10, 10, 10, 10, 10, 8, 8, 8, 5, 5, 5, 5, 5, 0, 0, 5, 5, 5, 5, 2, 2, 5, 0, 5, 5, 5, 5, 2, 2, 5, 0, 0, 0, 0, 0, 0, 0, 5, 5, 5, 5, -5, -5, -5, -5, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -10, 10, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 5, 5, 5, 5, -5, -5, -5, -5, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -5, -5, -5, -5, 5, 5, 5, 5, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0};</v>
+      </c>
+    </row>
+    <row r="950" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C950" t="str">
+        <f>_xlfn.CONCAT("int8_t xMiddleground[] = {",_xlfn.TEXTJOIN(", ",FALSE,F$2:F945),"};")</f>
+        <v>int8_t xMiddleground[] = {0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -2, -2, 0, 0, 0, 0, 0, 0, 0, 0, 0, -2, -2, 0, -2, -2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -2, -2, 2, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 0, 2, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -2, -2, -2, -2, 0, -2, -1, 0, -1, -1, -1, 0, 0, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -3, -3, -2, -2, -2, -2, -2, -2, -2, -2, -2, -3, -3, -2, -2, -2, -2, -2, -2, -2, -2, -2, -3, -3, -2, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 0, 0, -2, -2, -2, -2, -2, -2, -2, -2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -2, -2, -2, -2, 0, -2, -2, -2, -2, 0, 0, -2, -2, -2, -2, 0, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, 0, -2, -2, -2, -2, -2, -2, -2, -2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, 0, -2, -2, -3, -4, -3, -3, -4, -4, -4, -4, -4, -3, -3, -3, -2, -2, -2, -2, -2, 0, 0, -2, -2, -2, -2, -1, -1, -2, 0, -2, -2, -2, -2, -1, -1, -2, 0, 0, 0, 0, 0, 0, 0, -2, -2, -2, -2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4, -4, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 0, 2, 1, 0, 1, 1, 1, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 3, 3, 2, 2, 2, 2, 2, 2, 2, 1, 1, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 0, 2, 2, 2, 2, 0, 0, 2, 2, 2, 2, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0, 2, 2, 3, 4, 3, 3, 4, 4, 4, 4, 4, 3, 3, 3, 2, 2, 2, 2, 2, 0, 0, 2, 2, 2, 2, 1, 1, 2, 0, 2, 2, 2, 2, 1, 1, 2, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, -2, -2, -2, -2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -4, 4, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, -2, -2, -2, -2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -2, -2, -2, -2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0};</v>
+      </c>
+    </row>
+    <row r="951" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C951" t="str">
+        <f>_xlfn.CONCAT("int8_t xBackground[] = {",_xlfn.TEXTJOIN(", ",FALSE,G$2:G945),"};")</f>
+        <v>int8_t xBackground[] = {0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, 0, -1, 0, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, 0, -1, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, 0, -1, 0, 0, 0, 0, 0, 0, -1, 0, -1, -1, 0, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, 0, -1, -1, -1, -1, 0, 0, -1, -1, -1, -1, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, -1, -1, -2, -2, -2, -2, -2, -2, -2, -2, -2, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, -1, -1, -1, -1, 0, -1, -1, 0, -1, -1, -1, -1, 0, 0, -1, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, -2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 0, 1, 1, 1, 1, 0, 0, 1, 1, 1, 1, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 1, 1, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 1, 1, 1, 1, 0, 1, 1, 0, 1, 1, 1, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -2, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, 1, 1, 1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0};</v>
+      </c>
+    </row>
+    <row r="952" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C952" t="str">
+        <f>_xlfn.CONCAT("uint16_t subsititueStance[] = {",_xlfn.TEXTJOIN(", ",FALSE,H$2:H945),"};")</f>
+        <v>uint16_t subsititueStance[] = {65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 109, 65535, 109, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 109, 65535, 65535, 65535, 65535, 65535, 109, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 109, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 109, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 234, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 109, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 109, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 51, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 439, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 458, 65535, 458, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 458, 65535, 65535, 65535, 65535, 65535, 458, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 458, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 458, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 583, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 458, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 458, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 51, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 832, 65535, 832, 65535, 65535, 65535, 832, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 832, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 889, 65535, 889, 65535, 65535, 65535, 889, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 889, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535};</v>
       </c>
     </row>
   </sheetData>

--- a/Arrays.xlsx
+++ b/Arrays.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonholmes/projects/SummerFX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B2746A-9154-4D4C-A047-999BB205D967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE088DF2-3976-7D46-9635-210C335CF672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17940" yWindow="1240" windowWidth="36840" windowHeight="29660" xr2:uid="{50E1C641-7614-0542-B3D9-BEFC89310226}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="958">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="978">
   <si>
     <t>Man_StandingJump_FW_UP_01</t>
   </si>
@@ -2911,6 +2911,66 @@
   </si>
   <si>
     <t>Enemy_Die_BWD_LH_08</t>
+  </si>
+  <si>
+    <t>Enemy_Die_FWD_LH_09</t>
+  </si>
+  <si>
+    <t>Enemy_Die_FWD_LH_10</t>
+  </si>
+  <si>
+    <t>Enemy_Die_FWD_LH_11</t>
+  </si>
+  <si>
+    <t>Enemy_Die_FWD_LH_12</t>
+  </si>
+  <si>
+    <t>Enemy_Die_FWD_LH_13</t>
+  </si>
+  <si>
+    <t>Enemy_Die_BWD_LH_09</t>
+  </si>
+  <si>
+    <t>Enemy_Die_BWD_LH_10</t>
+  </si>
+  <si>
+    <t>Enemy_Die_BWD_LH_11</t>
+  </si>
+  <si>
+    <t>Enemy_Die_BWD_LH_12</t>
+  </si>
+  <si>
+    <t>Enemy_Die_BWD_LH_13</t>
+  </si>
+  <si>
+    <t>Enemy_Die_FWD_RH_09</t>
+  </si>
+  <si>
+    <t>Enemy_Die_FWD_RH_10</t>
+  </si>
+  <si>
+    <t>Enemy_Die_FWD_RH_11</t>
+  </si>
+  <si>
+    <t>Enemy_Die_FWD_RH_12</t>
+  </si>
+  <si>
+    <t>Enemy_Die_FWD_RH_13</t>
+  </si>
+  <si>
+    <t>Enemy_Die_BWD_RH_09</t>
+  </si>
+  <si>
+    <t>Enemy_Die_BWD_RH_10</t>
+  </si>
+  <si>
+    <t>Enemy_Die_BWD_RH_11</t>
+  </si>
+  <si>
+    <t>Enemy_Die_BWD_RH_12</t>
+  </si>
+  <si>
+    <t>Enemy_Die_BWD_RH_13</t>
   </si>
 </sst>
 </file>
@@ -3338,11 +3398,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB0A31D-4C97-AD45-A228-2A94A1C41CE1}">
-  <dimension ref="A1:Q952"/>
+  <dimension ref="A1:Q972"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A893" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A911" workbookViewId="0">
       <pane ySplit="18420" topLeftCell="A939"/>
-      <selection activeCell="C936" sqref="A1:N945"/>
+      <selection activeCell="B913" sqref="B913:B964"/>
       <selection pane="bottomLeft" activeCell="C947" sqref="C947:C952"/>
     </sheetView>
   </sheetViews>
@@ -43197,7 +43257,7 @@
     </row>
     <row r="900" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A900">
-        <f t="shared" ref="A900:A945" si="79">A899+1</f>
+        <f t="shared" ref="A900:A963" si="79">A899+1</f>
         <v>898</v>
       </c>
       <c r="B900" s="1" t="s">
@@ -43574,7 +43634,7 @@
         <v>926</v>
       </c>
       <c r="C913">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="D913">
         <v>0</v>
@@ -43589,7 +43649,7 @@
         <v>0</v>
       </c>
       <c r="H913">
-        <f t="shared" ref="H913:H944" si="80">_xlfn.XLOOKUP(I913,$B$2:$B$912,$A$2:$A$912,65535)</f>
+        <f t="shared" ref="H913:H964" si="80">_xlfn.XLOOKUP(I913,$B$2:$B$912,$A$2:$A$912,65535)</f>
         <v>65535</v>
       </c>
       <c r="I913" s="1"/>
@@ -43604,7 +43664,7 @@
       </c>
       <c r="C914">
         <f>C913+1</f>
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="D914">
         <v>0</v>
@@ -43633,8 +43693,8 @@
         <v>928</v>
       </c>
       <c r="C915">
-        <f t="shared" ref="C915:C944" si="81">C914+1</f>
-        <v>58</v>
+        <f t="shared" ref="C915:C964" si="81">C914+1</f>
+        <v>82</v>
       </c>
       <c r="D915">
         <v>0</v>
@@ -43664,7 +43724,7 @@
       </c>
       <c r="C916">
         <f t="shared" si="81"/>
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="D916">
         <v>0</v>
@@ -43694,7 +43754,7 @@
       </c>
       <c r="C917">
         <f t="shared" si="81"/>
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="D917">
         <v>0</v>
@@ -43724,7 +43784,7 @@
       </c>
       <c r="C918">
         <f t="shared" si="81"/>
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D918">
         <v>0</v>
@@ -43754,7 +43814,7 @@
       </c>
       <c r="C919">
         <f t="shared" si="81"/>
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="D919">
         <v>0</v>
@@ -43784,7 +43844,7 @@
       </c>
       <c r="C920">
         <f t="shared" si="81"/>
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="D920">
         <v>0</v>
@@ -43810,10 +43870,11 @@
         <v>919</v>
       </c>
       <c r="B921" s="1" t="s">
-        <v>930</v>
+        <v>958</v>
       </c>
       <c r="C921">
-        <v>32</v>
+        <f t="shared" si="81"/>
+        <v>88</v>
       </c>
       <c r="D921">
         <v>0</v>
@@ -43839,11 +43900,11 @@
         <v>920</v>
       </c>
       <c r="B922" s="1" t="s">
-        <v>931</v>
+        <v>959</v>
       </c>
       <c r="C922">
         <f t="shared" si="81"/>
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="D922">
         <v>0</v>
@@ -43869,11 +43930,11 @@
         <v>921</v>
       </c>
       <c r="B923" s="1" t="s">
-        <v>932</v>
+        <v>960</v>
       </c>
       <c r="C923">
         <f t="shared" si="81"/>
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="D923">
         <v>0</v>
@@ -43899,11 +43960,11 @@
         <v>922</v>
       </c>
       <c r="B924" s="1" t="s">
-        <v>933</v>
+        <v>961</v>
       </c>
       <c r="C924">
         <f t="shared" si="81"/>
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="D924">
         <v>0</v>
@@ -43929,11 +43990,11 @@
         <v>923</v>
       </c>
       <c r="B925" s="1" t="s">
-        <v>954</v>
+        <v>962</v>
       </c>
       <c r="C925">
         <f t="shared" si="81"/>
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="D925">
         <v>0</v>
@@ -43959,11 +44020,10 @@
         <v>924</v>
       </c>
       <c r="B926" s="1" t="s">
-        <v>955</v>
+        <v>930</v>
       </c>
       <c r="C926">
-        <f t="shared" si="81"/>
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D926">
         <v>0</v>
@@ -43989,11 +44049,11 @@
         <v>925</v>
       </c>
       <c r="B927" s="1" t="s">
-        <v>956</v>
+        <v>931</v>
       </c>
       <c r="C927">
         <f t="shared" si="81"/>
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D927">
         <v>0</v>
@@ -44019,11 +44079,11 @@
         <v>926</v>
       </c>
       <c r="B928" s="1" t="s">
-        <v>957</v>
+        <v>932</v>
       </c>
       <c r="C928">
         <f t="shared" si="81"/>
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D928">
         <v>0</v>
@@ -44049,10 +44109,11 @@
         <v>927</v>
       </c>
       <c r="B929" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C929">
-        <v>48</v>
+        <f t="shared" si="81"/>
+        <v>35</v>
       </c>
       <c r="D929">
         <v>0</v>
@@ -44078,11 +44139,11 @@
         <v>928</v>
       </c>
       <c r="B930" s="1" t="s">
-        <v>935</v>
+        <v>954</v>
       </c>
       <c r="C930">
         <f t="shared" si="81"/>
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="D930">
         <v>0</v>
@@ -44108,11 +44169,11 @@
         <v>929</v>
       </c>
       <c r="B931" s="1" t="s">
-        <v>936</v>
+        <v>955</v>
       </c>
       <c r="C931">
         <f t="shared" si="81"/>
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D931">
         <v>0</v>
@@ -44138,11 +44199,11 @@
         <v>930</v>
       </c>
       <c r="B932" s="1" t="s">
-        <v>937</v>
+        <v>956</v>
       </c>
       <c r="C932">
         <f t="shared" si="81"/>
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D932">
         <v>0</v>
@@ -44168,11 +44229,11 @@
         <v>931</v>
       </c>
       <c r="B933" s="1" t="s">
-        <v>942</v>
+        <v>957</v>
       </c>
       <c r="C933">
         <f t="shared" si="81"/>
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D933">
         <v>0</v>
@@ -44198,11 +44259,11 @@
         <v>932</v>
       </c>
       <c r="B934" s="1" t="s">
-        <v>943</v>
+        <v>963</v>
       </c>
       <c r="C934">
         <f t="shared" si="81"/>
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D934">
         <v>0</v>
@@ -44228,11 +44289,11 @@
         <v>933</v>
       </c>
       <c r="B935" s="1" t="s">
-        <v>944</v>
+        <v>964</v>
       </c>
       <c r="C935">
         <f t="shared" si="81"/>
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D935">
         <v>0</v>
@@ -44258,11 +44319,11 @@
         <v>934</v>
       </c>
       <c r="B936" s="1" t="s">
-        <v>945</v>
+        <v>965</v>
       </c>
       <c r="C936">
         <f t="shared" si="81"/>
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D936">
         <v>0</v>
@@ -44288,10 +44349,11 @@
         <v>935</v>
       </c>
       <c r="B937" s="1" t="s">
-        <v>938</v>
+        <v>966</v>
       </c>
       <c r="C937">
-        <v>40</v>
+        <f t="shared" si="81"/>
+        <v>43</v>
       </c>
       <c r="D937">
         <v>0</v>
@@ -44317,11 +44379,11 @@
         <v>936</v>
       </c>
       <c r="B938" s="1" t="s">
-        <v>939</v>
+        <v>967</v>
       </c>
       <c r="C938">
         <f t="shared" si="81"/>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D938">
         <v>0</v>
@@ -44347,11 +44409,10 @@
         <v>937</v>
       </c>
       <c r="B939" s="1" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="C939">
-        <f t="shared" si="81"/>
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D939">
         <v>0</v>
@@ -44377,11 +44438,11 @@
         <v>938</v>
       </c>
       <c r="B940" s="1" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="C940">
         <f t="shared" si="81"/>
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D940">
         <v>0</v>
@@ -44407,11 +44468,11 @@
         <v>939</v>
       </c>
       <c r="B941" s="1" t="s">
-        <v>946</v>
+        <v>936</v>
       </c>
       <c r="C941">
         <f t="shared" si="81"/>
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="D941">
         <v>0</v>
@@ -44437,11 +44498,11 @@
         <v>940</v>
       </c>
       <c r="B942" s="1" t="s">
-        <v>947</v>
+        <v>937</v>
       </c>
       <c r="C942">
         <f t="shared" si="81"/>
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="D942">
         <v>0</v>
@@ -44467,11 +44528,11 @@
         <v>941</v>
       </c>
       <c r="B943" s="1" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="C943">
         <f t="shared" si="81"/>
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="D943">
         <v>0</v>
@@ -44497,11 +44558,11 @@
         <v>942</v>
       </c>
       <c r="B944" s="1" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="C944">
         <f t="shared" si="81"/>
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="D944">
         <v>0</v>
@@ -44521,68 +44582,667 @@
       </c>
       <c r="I944" s="1"/>
     </row>
-    <row r="945" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A945">
         <f t="shared" si="79"/>
         <v>943</v>
       </c>
       <c r="B945" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="C945">
+        <f t="shared" si="81"/>
+        <v>70</v>
+      </c>
+      <c r="D945">
+        <v>0</v>
+      </c>
+      <c r="E945">
+        <v>0</v>
+      </c>
+      <c r="F945">
+        <v>0</v>
+      </c>
+      <c r="G945">
+        <v>0</v>
+      </c>
+      <c r="H945">
+        <f t="shared" si="80"/>
+        <v>65535</v>
+      </c>
+      <c r="I945" s="1"/>
+    </row>
+    <row r="946" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A946">
+        <f t="shared" si="79"/>
+        <v>944</v>
+      </c>
+      <c r="B946" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="C946">
+        <f t="shared" si="81"/>
+        <v>71</v>
+      </c>
+      <c r="D946">
+        <v>0</v>
+      </c>
+      <c r="E946">
+        <v>0</v>
+      </c>
+      <c r="F946">
+        <v>0</v>
+      </c>
+      <c r="G946">
+        <v>0</v>
+      </c>
+      <c r="H946">
+        <f t="shared" si="80"/>
+        <v>65535</v>
+      </c>
+      <c r="I946" s="1"/>
+    </row>
+    <row r="947" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A947">
+        <f t="shared" si="79"/>
+        <v>945</v>
+      </c>
+      <c r="B947" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="C947">
+        <f t="shared" si="81"/>
+        <v>72</v>
+      </c>
+      <c r="D947">
+        <v>0</v>
+      </c>
+      <c r="E947">
+        <v>0</v>
+      </c>
+      <c r="F947">
+        <v>0</v>
+      </c>
+      <c r="G947">
+        <v>0</v>
+      </c>
+      <c r="H947">
+        <f t="shared" si="80"/>
+        <v>65535</v>
+      </c>
+      <c r="I947" s="1"/>
+    </row>
+    <row r="948" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A948">
+        <f t="shared" si="79"/>
+        <v>946</v>
+      </c>
+      <c r="B948" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="C948">
+        <f t="shared" si="81"/>
+        <v>73</v>
+      </c>
+      <c r="D948">
+        <v>0</v>
+      </c>
+      <c r="E948">
+        <v>0</v>
+      </c>
+      <c r="F948">
+        <v>0</v>
+      </c>
+      <c r="G948">
+        <v>0</v>
+      </c>
+      <c r="H948">
+        <f t="shared" si="80"/>
+        <v>65535</v>
+      </c>
+      <c r="I948" s="1"/>
+    </row>
+    <row r="949" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A949">
+        <f t="shared" si="79"/>
+        <v>947</v>
+      </c>
+      <c r="B949" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="C949">
+        <f t="shared" si="81"/>
+        <v>74</v>
+      </c>
+      <c r="D949">
+        <v>0</v>
+      </c>
+      <c r="E949">
+        <v>0</v>
+      </c>
+      <c r="F949">
+        <v>0</v>
+      </c>
+      <c r="G949">
+        <v>0</v>
+      </c>
+      <c r="H949">
+        <f t="shared" si="80"/>
+        <v>65535</v>
+      </c>
+      <c r="I949" s="1"/>
+    </row>
+    <row r="950" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A950">
+        <f t="shared" si="79"/>
+        <v>948</v>
+      </c>
+      <c r="B950" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="C950">
+        <f t="shared" si="81"/>
+        <v>75</v>
+      </c>
+      <c r="D950">
+        <v>0</v>
+      </c>
+      <c r="E950">
+        <v>0</v>
+      </c>
+      <c r="F950">
+        <v>0</v>
+      </c>
+      <c r="G950">
+        <v>0</v>
+      </c>
+      <c r="H950">
+        <f t="shared" si="80"/>
+        <v>65535</v>
+      </c>
+      <c r="I950" s="1"/>
+    </row>
+    <row r="951" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A951">
+        <f t="shared" si="79"/>
+        <v>949</v>
+      </c>
+      <c r="B951" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="C951">
+        <f t="shared" si="81"/>
+        <v>76</v>
+      </c>
+      <c r="D951">
+        <v>0</v>
+      </c>
+      <c r="E951">
+        <v>0</v>
+      </c>
+      <c r="F951">
+        <v>0</v>
+      </c>
+      <c r="G951">
+        <v>0</v>
+      </c>
+      <c r="H951">
+        <f t="shared" si="80"/>
+        <v>65535</v>
+      </c>
+      <c r="I951" s="1"/>
+    </row>
+    <row r="952" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A952">
+        <f t="shared" si="79"/>
+        <v>950</v>
+      </c>
+      <c r="B952" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="C952">
+        <v>48</v>
+      </c>
+      <c r="D952">
+        <v>0</v>
+      </c>
+      <c r="E952">
+        <v>0</v>
+      </c>
+      <c r="F952">
+        <v>0</v>
+      </c>
+      <c r="G952">
+        <v>0</v>
+      </c>
+      <c r="H952">
+        <f t="shared" si="80"/>
+        <v>65535</v>
+      </c>
+      <c r="I952" s="1"/>
+    </row>
+    <row r="953" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A953">
+        <f t="shared" si="79"/>
+        <v>951</v>
+      </c>
+      <c r="B953" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="C953">
+        <f t="shared" si="81"/>
+        <v>49</v>
+      </c>
+      <c r="D953">
+        <v>0</v>
+      </c>
+      <c r="E953">
+        <v>0</v>
+      </c>
+      <c r="F953">
+        <v>0</v>
+      </c>
+      <c r="G953">
+        <v>0</v>
+      </c>
+      <c r="H953">
+        <f t="shared" si="80"/>
+        <v>65535</v>
+      </c>
+      <c r="I953" s="1"/>
+    </row>
+    <row r="954" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A954">
+        <f t="shared" si="79"/>
+        <v>952</v>
+      </c>
+      <c r="B954" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="C954">
+        <f t="shared" si="81"/>
+        <v>50</v>
+      </c>
+      <c r="D954">
+        <v>0</v>
+      </c>
+      <c r="E954">
+        <v>0</v>
+      </c>
+      <c r="F954">
+        <v>0</v>
+      </c>
+      <c r="G954">
+        <v>0</v>
+      </c>
+      <c r="H954">
+        <f t="shared" si="80"/>
+        <v>65535</v>
+      </c>
+      <c r="I954" s="1"/>
+    </row>
+    <row r="955" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A955">
+        <f t="shared" si="79"/>
+        <v>953</v>
+      </c>
+      <c r="B955" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="C955">
+        <f t="shared" si="81"/>
+        <v>51</v>
+      </c>
+      <c r="D955">
+        <v>0</v>
+      </c>
+      <c r="E955">
+        <v>0</v>
+      </c>
+      <c r="F955">
+        <v>0</v>
+      </c>
+      <c r="G955">
+        <v>0</v>
+      </c>
+      <c r="H955">
+        <f t="shared" si="80"/>
+        <v>65535</v>
+      </c>
+      <c r="I955" s="1"/>
+    </row>
+    <row r="956" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A956">
+        <f t="shared" si="79"/>
+        <v>954</v>
+      </c>
+      <c r="B956" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="C956">
+        <f t="shared" si="81"/>
+        <v>52</v>
+      </c>
+      <c r="D956">
+        <v>0</v>
+      </c>
+      <c r="E956">
+        <v>0</v>
+      </c>
+      <c r="F956">
+        <v>0</v>
+      </c>
+      <c r="G956">
+        <v>0</v>
+      </c>
+      <c r="H956">
+        <f t="shared" si="80"/>
+        <v>65535</v>
+      </c>
+      <c r="I956" s="1"/>
+    </row>
+    <row r="957" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A957">
+        <f t="shared" si="79"/>
+        <v>955</v>
+      </c>
+      <c r="B957" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="C957">
+        <f t="shared" si="81"/>
+        <v>53</v>
+      </c>
+      <c r="D957">
+        <v>0</v>
+      </c>
+      <c r="E957">
+        <v>0</v>
+      </c>
+      <c r="F957">
+        <v>0</v>
+      </c>
+      <c r="G957">
+        <v>0</v>
+      </c>
+      <c r="H957">
+        <f t="shared" si="80"/>
+        <v>65535</v>
+      </c>
+      <c r="I957" s="1"/>
+    </row>
+    <row r="958" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A958">
+        <f t="shared" si="79"/>
+        <v>956</v>
+      </c>
+      <c r="B958" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="C958">
+        <f t="shared" si="81"/>
+        <v>54</v>
+      </c>
+      <c r="D958">
+        <v>0</v>
+      </c>
+      <c r="E958">
+        <v>0</v>
+      </c>
+      <c r="F958">
+        <v>0</v>
+      </c>
+      <c r="G958">
+        <v>0</v>
+      </c>
+      <c r="H958">
+        <f t="shared" si="80"/>
+        <v>65535</v>
+      </c>
+      <c r="I958" s="1"/>
+    </row>
+    <row r="959" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A959">
+        <f t="shared" si="79"/>
+        <v>957</v>
+      </c>
+      <c r="B959" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="C959">
+        <f t="shared" si="81"/>
+        <v>55</v>
+      </c>
+      <c r="D959">
+        <v>0</v>
+      </c>
+      <c r="E959">
+        <v>0</v>
+      </c>
+      <c r="F959">
+        <v>0</v>
+      </c>
+      <c r="G959">
+        <v>0</v>
+      </c>
+      <c r="H959">
+        <f t="shared" si="80"/>
+        <v>65535</v>
+      </c>
+      <c r="I959" s="1"/>
+    </row>
+    <row r="960" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A960">
+        <f t="shared" si="79"/>
+        <v>958</v>
+      </c>
+      <c r="B960" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="C960">
+        <f t="shared" si="81"/>
+        <v>56</v>
+      </c>
+      <c r="D960">
+        <v>0</v>
+      </c>
+      <c r="E960">
+        <v>0</v>
+      </c>
+      <c r="F960">
+        <v>0</v>
+      </c>
+      <c r="G960">
+        <v>0</v>
+      </c>
+      <c r="H960">
+        <f t="shared" si="80"/>
+        <v>65535</v>
+      </c>
+      <c r="I960" s="1"/>
+    </row>
+    <row r="961" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A961">
+        <f t="shared" si="79"/>
+        <v>959</v>
+      </c>
+      <c r="B961" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="C961">
+        <f t="shared" si="81"/>
+        <v>57</v>
+      </c>
+      <c r="D961">
+        <v>0</v>
+      </c>
+      <c r="E961">
+        <v>0</v>
+      </c>
+      <c r="F961">
+        <v>0</v>
+      </c>
+      <c r="G961">
+        <v>0</v>
+      </c>
+      <c r="H961">
+        <f t="shared" si="80"/>
+        <v>65535</v>
+      </c>
+      <c r="I961" s="1"/>
+    </row>
+    <row r="962" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A962">
+        <f t="shared" si="79"/>
+        <v>960</v>
+      </c>
+      <c r="B962" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="C962">
+        <f t="shared" si="81"/>
+        <v>58</v>
+      </c>
+      <c r="D962">
+        <v>0</v>
+      </c>
+      <c r="E962">
+        <v>0</v>
+      </c>
+      <c r="F962">
+        <v>0</v>
+      </c>
+      <c r="G962">
+        <v>0</v>
+      </c>
+      <c r="H962">
+        <f t="shared" si="80"/>
+        <v>65535</v>
+      </c>
+      <c r="I962" s="1"/>
+    </row>
+    <row r="963" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A963">
+        <f t="shared" si="79"/>
+        <v>961</v>
+      </c>
+      <c r="B963" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="C963">
+        <f t="shared" si="81"/>
+        <v>59</v>
+      </c>
+      <c r="D963">
+        <v>0</v>
+      </c>
+      <c r="E963">
+        <v>0</v>
+      </c>
+      <c r="F963">
+        <v>0</v>
+      </c>
+      <c r="G963">
+        <v>0</v>
+      </c>
+      <c r="H963">
+        <f t="shared" si="80"/>
+        <v>65535</v>
+      </c>
+      <c r="I963" s="1"/>
+    </row>
+    <row r="964" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A964">
+        <f t="shared" ref="A964:A965" si="82">A963+1</f>
+        <v>962</v>
+      </c>
+      <c r="B964" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="C964">
+        <f t="shared" si="81"/>
+        <v>60</v>
+      </c>
+      <c r="D964">
+        <v>0</v>
+      </c>
+      <c r="E964">
+        <v>0</v>
+      </c>
+      <c r="F964">
+        <v>0</v>
+      </c>
+      <c r="G964">
+        <v>0</v>
+      </c>
+      <c r="H964">
+        <f t="shared" si="80"/>
+        <v>65535</v>
+      </c>
+      <c r="I964" s="1"/>
+    </row>
+    <row r="965" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A965">
+        <f t="shared" si="82"/>
+        <v>963</v>
+      </c>
+      <c r="B965" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="C945">
+      <c r="C965">
         <v>7</v>
       </c>
-      <c r="D945">
+      <c r="D965">
         <v>15</v>
       </c>
-      <c r="E945">
-        <v>0</v>
-      </c>
-      <c r="F945">
-        <v>0</v>
-      </c>
-      <c r="G945">
-        <v>0</v>
-      </c>
-      <c r="H945">
-        <f>_xlfn.XLOOKUP(I945,$B$2:$B$798,$A$2:$A$798,65535)</f>
-        <v>65535</v>
-      </c>
-    </row>
-    <row r="947" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C947" t="str">
-        <f>_xlfn.CONCAT("uint8_t StanceImgIdx[] = {",_xlfn.TEXTJOIN(", ",FALSE,C$2:C945),"};")</f>
-        <v>uint8_t StanceImgIdx[] = {0, 1, 2, 3, 3, 0, 0, 0, 0, 1, 0, 3, 0, 0, 0, 0, 255, 5, 6, 5, 6, 0, 17, 19, 17, 19, 17, 4, 5, 6, 5, 5, 6, 5, 4, 17, 19, 17, 19, 17, 0, 6, 5, 6, 5, 13, 14, 13, 14, 0, 17, 19, 17, 19, 17, 12, 13, 14, 13, 13, 14, 13, 12, 17, 19, 17, 19, 17, 0, 14, 13, 14, 13, 16, 16, 0, 0, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 2, 1, 7, 5, 4, 5, 6, 5, 4, 5, 6, 5, 4, 5, 6, 5, 4, 5, 6, 5, 4, 5, 6, 5, 4, 5, 6, 5, 4, 5, 6, 5, 4, 5, 6, 5, 5, 4, 5, 5, 5, 5, 5, 5, 5, 5, 7, 5, 4, 5, 5, 5, 5, 6, 5, 5, 7, 5, 4, 4, 4, 4, 5, 5, 4, 4, 4, 4, 4, 5, 4, 4, 4, 4, 4, 4, 6, 5, 4, 4, 4, 4, 4, 4, 6, 5, 4, 4, 4, 4, 4, 4, 4, 4, 4, 6, 5, 4, 4, 4, 4, 4, 4, 4, 4, 5, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 6, 5, 4, 4, 4, 6, 5, 0, 32, 33, 34, 32, 33, 34, 32, 33, 34, 34, 33, 0, 4, 4, 34, 34, 34, 34, 34, 0, 0, 0, 0, 34, 34, 34, 34, 34, 34, 34, 0, 0, 0, 0, 0, 0, 0, 34, 34, 34, 34, 34, 34, 34, 34, 34, 5, 4, 5, 6, 5, 36, 36, 36, 36, 5, 5, 5, 4, 5, 6, 5, 36, 36, 36, 36, 36, 36, 36, 5, 5, 4, 5, 6, 5, 36, 36, 36, 36, 36, 36, 36, 5, 37, 38, 39, 38, 37, 38, 39, 38, 37, 38, 39, 40, 41, 42, 41, 40, 41, 42, 41, 40, 41, 42, 4, 4, 4, 4, 4, 5, 4, 5, 4, 5, 4, 5, 5, 4, 4, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 4, 4, 6, 7, 5, 5, 4, 4, 4, 4, 4, 6, 5, 5, 4, 4, 4, 4, 4, 6, 19, 120, 121, 122, 123, 122, 121, 120, 121, 120, 121, 120, 121, 120, 121, 120, 121, 120, 120, 120, 120, 121, 120, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 5, 5, 100, 101, 102, 103, 96, 97, 98, 99, 20, 21, 22, 23, 112, 113, 114, 115, 20, 21, 22, 23, 8, 9, 10, 11, 9, 8, 8, 8, 8, 11, 8, 9, 8, 8, 8, 8, 8, 13, 12, 13, 14, 13, 12, 13, 14, 13, 12, 13, 14, 13, 12, 13, 14, 13, 12, 13, 14, 13, 12, 13, 14, 13, 12, 13, 14, 13, 12, 13, 14, 13, 13, 12, 13, 13, 13, 13, 13, 13, 13, 13, 15, 13, 13, 13, 13, 13, 13, 14, 13, 13, 15, 13, 12, 12, 12, 12, 13, 13, 12, 12, 12, 12, 12, 13, 12, 12, 12, 12, 12, 12, 14, 13, 12, 12, 12, 12, 12, 12, 14, 13, 12, 12, 12, 12, 12, 12, 12, 12, 12, 14, 13, 12, 12, 12, 12, 12, 12, 12, 12, 13, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 14, 13, 12, 12, 12, 14, 13, 0, 33, 32, 34, 33, 32, 34, 33, 32, 34, 34, 32, 0, 12, 12, 34, 34, 34, 34, 34, 0, 0, 0, 0, 34, 34, 34, 34, 34, 34, 34, 0, 0, 0, 0, 0, 0, 0, 34, 34, 34, 34, 34, 34, 34, 34, 34, 13, 12, 13, 14, 13, 44, 44, 44, 44, 13, 13, 13, 12, 13, 14, 13, 44, 44, 44, 44, 44, 44, 44, 13, 13, 12, 13, 14, 13, 44, 44, 44, 44, 44, 44, 44, 13, 45, 46, 47, 46, 45, 46, 47, 46, 45, 46, 47, 48, 49, 50, 49, 48, 49, 50, 49, 48, 49, 50, 12, 12, 12, 12, 12, 13, 12, 13, 12, 13, 12, 13, 13, 12, 12, 60, 60, 60, 60, 60, 60, 60, 60, 60, 60, 60, 60, 60, 12, 12, 14, 15, 13, 13, 12, 12, 12, 12, 12, 14, 13, 13, 12, 12, 12, 12, 12, 14, 19, 124, 125, 126, 127, 126, 125, 124, 125, 124, 125, 124, 125, 124, 125, 124, 125, 124, 124, 124, 124, 125, 124, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 13, 13, 108, 109, 110, 111, 104, 105, 106, 107, 28, 29, 30, 31, 116, 117, 118, 119, 28, 29, 30, 31, 4, 5, 5, 5, 5, 5, 5, 6, 7, 0, 1, 2, 3, 16, 17, 18, 19, 0, 20, 20, 21, 22, 22, 22, 20, 20, 20, 20, 20, 0, 1, 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 4, 5, 6, 7, 6, 5, 4, 5, 4, 5, 4, 5, 4, 5, 4, 5, 4, 4, 4, 4, 5, 4, 8, 9, 10, 11, 24, 25, 26, 27, 24, 28, 28, 29, 30, 30, 30, 28, 28, 28, 28, 28, 24, 9, 8, 8, 8, 8, 9, 9, 9, 9, 9, 9, 9, 9, 9, 12, 13, 14, 15, 14, 13, 12, 13, 12, 13, 12, 13, 12, 13, 12, 13, 12, 12, 12, 12, 13, 12, 56, 57, 58, 59, 60, 61, 62, 63, 32, 33, 34, 35, 36, 37, 38, 39, 48, 49, 50, 51, 52, 53, 54, 55, 40, 41, 42, 43, 44, 45, 46, 47, 7};</v>
-      </c>
-    </row>
-    <row r="948" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C948" t="str">
-        <f>_xlfn.CONCAT("int8_t StanceY[] = {",_xlfn.TEXTJOIN(", ",FALSE,D$2:D945),"};")</f>
-        <v>int8_t StanceY[] = {0, 0, 0, 0, 0, 4, 3, 2, -2, -3, -4, 0, 4, 3, 2, -1, 255, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, -2, -2, -2, -2, -2, -2, -2, -2, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, -2, -2, -2, -2, -2, -2, -2, -2, 0, 0, 0, -4, -4, -4, -4, 0, 0, -3, -2, 0, 1, 2, 3, 2, 1, 0, -1, -2, -3, -2, -1, 0, 1, 2, 1, 0, -1, -2, -1, 0, 0, -2, 0, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 4, 2, 2, 0, 0, 0, 0, 0, -2, -2, -2, -2, 0, -2, -2, -4, 0, 0, -1, -1, -2, -4, -4, -4, -4, -4, 0, 0, 0, 4, 3, 2, -2, -3, -4, 1, 0, -1, 4, 3, 2, 1, -1, -1, 3, 3, 2, 1, 0, -1, 0, 4, 3, 2, 0, -2, -3, -4, 0, 4, 3, 2, 0, -2, -3, -4, 0, 2, 2, 1, 1, 0, 0, -1, -1, -2, -2, 0, 2, 1, 0, -1, -1, -2, -3, -4, 0, 0, 0, 2, 1, 0, -1, -1, -2, -3, -4, -4, -4, 0, 4, 3, 2, -1, 0, 2, 2, 0, 0, 0, 0, 0, 0, 0, -2, -2, 0, 0, 4, -1, 1, 2, 1, 0, -1, -2, -1, 0, 1, 2, 3, 3, 2, 1, 0, -1, -2, -3, -3, -2, -1, 0, 1, 2, 3, 3, 4, 4, 4, 4, 0, 0, 0, 0, 0, -3, -2, -2, -2, -2, -1, -4, 0, 0, 0, 0, -3, -2, -2, -2, -2, -2, -2, -1, 0, 0, 0, 0, 0, -3, -2, -2, -2, -2, -2, -2, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -4, 0, 2, 2, -2, -2, -1, 0, -1, 0, 0, 1, 0, 1, 2, 1, 0, 1, -2, -2, 0, 0, 1, 1, 1, 0, -1, -1, -1, 0, 1, 1, 1, 0, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 2, 1, -1, -2, -3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4, 3, 2, -2, -3, -4, 0, 4, 3, 2, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 4, 2, 2, 0, 0, 0, 0, 0, -2, -2, -2, -2, 0, -2, -2, -4, 0, 0, -1, -1, -2, -4, -4, -4, -4, -4, 0, 0, 0, 4, 3, 2, -2, -3, -4, 1, 0, -1, 4, 3, 2, 1, -1, -1, 3, 3, 2, 1, 0, -1, 0, 4, 3, 2, 0, -2, -3, -4, 0, 4, 3, 2, 0, -2, -3, -4, 0, 2, 2, 1, 1, 0, 0, -1, -1, -2, -2, 0, 2, 1, 0, -1, -1, -2, -3, -4, 0, 0, 0, 2, 1, 0, -1, -1, -2, -3, -4, -4, -4, 0, 4, 3, 2, -1, 0, 2, 2, 0, 0, 0, 0, 0, 0, 0, -2, -2, 0, 0, 4, -1, 1, 2, 1, 0, -1, -2, -1, 0, 1, 2, 3, 3, 2, 1, 0, -1, -2, -3, -3, -2, -1, 0, 1, 2, 3, 3, 4, 4, 4, 4, 0, 0, 0, 0, 0, -3, -2, -2, -2, -2, -1, -4, 0, 0, 0, 0, -3, -2, -2, -2, -2, -2, -2, -1, 0, 0, 0, 0, 0, -3, -2, -2, -2, -2, -2, -2, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -4, 0, 2, 2, -2, -2, -1, 0, -1, 0, 0, 1, 0, 1, 2, 1, 0, 1, -2, -2, 0, 0, 1, 1, 1, 0, -1, -1, -1, 0, 1, 1, 1, 0, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 2, 1, -1, -2, -3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -2, -1, 0, 1, 2, 4, 7, 11, 15, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 2, 1, -1, -2, -3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 2, 1, -1, -2, -3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 15};</v>
-      </c>
-    </row>
-    <row r="949" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C949" t="str">
-        <f>_xlfn.CONCAT("int8_t xForeground[] = {",_xlfn.TEXTJOIN(", ",FALSE,E$2:E945),"};")</f>
-        <v>int8_t xForeground[] = {0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -5, -5, 0, 0, 0, 0, 0, 0, 0, 0, 0, -5, -5, -5, -5, -5, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -5, -5, 5, 5, 0, 0, 0, 0, 0, 0, 0, 0, 0, 5, 5, 5, 5, 5, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 5, 5, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -5, -5, -5, -5, -5, -5, -5, 0, -5, -5, -5, 0, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, 0, 0, 0, 0, -5, -5, -5, -5, -5, -5, -5, -5, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -5, -5, -5, -5, 0, -5, -5, -5, -5, 0, 0, -5, -5, -5, -5, 0, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, 0, -5, -5, -5, -5, -5, -5, -5, -5, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, 0, -5, -5, -8, -8, -8, -10, -10, -10, -10, -10, -10, -8, -8, -8, -5, -5, -5, -5, -5, 0, 0, -5, -5, -5, -5, -2, -2, -5, 0, -5, -5, -5, -5, -2, -2, -5, 0, 0, 0, 0, 0, 0, 0, -5, -5, -5, -5, 5, 5, 5, 5, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 10, -10, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 5, 5, 5, 5, 5, 5, 5, 0, 5, 5, 5, 0, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 0, 0, 0, 0, 5, 5, 5, 5, 5, 5, 5, 5, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 5, 5, 5, 5, 0, 5, 5, 5, 5, 0, 0, 5, 5, 5, 5, 0, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 0, 5, 5, 5, 5, 5, 5, 5, 5, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 0, 5, 5, 8, 8, 8, 10, 10, 10, 10, 10, 10, 8, 8, 8, 5, 5, 5, 5, 5, 0, 0, 5, 5, 5, 5, 2, 2, 5, 0, 5, 5, 5, 5, 2, 2, 5, 0, 0, 0, 0, 0, 0, 0, 5, 5, 5, 5, -5, -5, -5, -5, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -10, 10, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 5, 5, 5, 5, -5, -5, -5, -5, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -5, -5, -5, -5, 5, 5, 5, 5, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0};</v>
-      </c>
-    </row>
-    <row r="950" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C950" t="str">
-        <f>_xlfn.CONCAT("int8_t xMiddleground[] = {",_xlfn.TEXTJOIN(", ",FALSE,F$2:F945),"};")</f>
-        <v>int8_t xMiddleground[] = {0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -2, -2, 0, 0, 0, 0, 0, 0, 0, 0, 0, -2, -2, 0, -2, -2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -2, -2, 2, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 0, 2, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -2, -2, -2, -2, 0, -2, -1, 0, -1, -1, -1, 0, 0, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -3, -3, -2, -2, -2, -2, -2, -2, -2, -2, -2, -3, -3, -2, -2, -2, -2, -2, -2, -2, -2, -2, -3, -3, -2, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 0, 0, -2, -2, -2, -2, -2, -2, -2, -2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -2, -2, -2, -2, 0, -2, -2, -2, -2, 0, 0, -2, -2, -2, -2, 0, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, 0, -2, -2, -2, -2, -2, -2, -2, -2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, 0, -2, -2, -3, -4, -3, -3, -4, -4, -4, -4, -4, -3, -3, -3, -2, -2, -2, -2, -2, 0, 0, -2, -2, -2, -2, -1, -1, -2, 0, -2, -2, -2, -2, -1, -1, -2, 0, 0, 0, 0, 0, 0, 0, -2, -2, -2, -2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4, -4, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 0, 2, 1, 0, 1, 1, 1, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 3, 3, 2, 2, 2, 2, 2, 2, 2, 1, 1, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 0, 2, 2, 2, 2, 0, 0, 2, 2, 2, 2, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0, 2, 2, 3, 4, 3, 3, 4, 4, 4, 4, 4, 3, 3, 3, 2, 2, 2, 2, 2, 0, 0, 2, 2, 2, 2, 1, 1, 2, 0, 2, 2, 2, 2, 1, 1, 2, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, -2, -2, -2, -2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -4, 4, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, -2, -2, -2, -2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -2, -2, -2, -2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0};</v>
-      </c>
-    </row>
-    <row r="951" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C951" t="str">
-        <f>_xlfn.CONCAT("int8_t xBackground[] = {",_xlfn.TEXTJOIN(", ",FALSE,G$2:G945),"};")</f>
-        <v>int8_t xBackground[] = {0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, 0, -1, 0, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, 0, -1, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, 0, -1, 0, 0, 0, 0, 0, 0, -1, 0, -1, -1, 0, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, 0, -1, -1, -1, -1, 0, 0, -1, -1, -1, -1, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, -1, -1, -2, -2, -2, -2, -2, -2, -2, -2, -2, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, -1, -1, -1, -1, 0, -1, -1, 0, -1, -1, -1, -1, 0, 0, -1, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, -2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 0, 1, 1, 1, 1, 0, 0, 1, 1, 1, 1, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 1, 1, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 1, 1, 1, 1, 0, 1, 1, 0, 1, 1, 1, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -2, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, 1, 1, 1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0};</v>
-      </c>
-    </row>
-    <row r="952" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C952" t="str">
-        <f>_xlfn.CONCAT("uint16_t subsititueStance[] = {",_xlfn.TEXTJOIN(", ",FALSE,H$2:H945),"};")</f>
-        <v>uint16_t subsititueStance[] = {65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 109, 65535, 109, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 109, 65535, 65535, 65535, 65535, 65535, 109, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 109, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 109, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 234, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 109, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 109, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 51, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 439, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 458, 65535, 458, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 458, 65535, 65535, 65535, 65535, 65535, 458, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 458, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 458, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 583, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 458, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 458, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 51, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 832, 65535, 832, 65535, 65535, 65535, 832, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 832, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 889, 65535, 889, 65535, 65535, 65535, 889, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 889, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535};</v>
+      <c r="E965">
+        <v>0</v>
+      </c>
+      <c r="F965">
+        <v>0</v>
+      </c>
+      <c r="G965">
+        <v>0</v>
+      </c>
+      <c r="H965">
+        <f>_xlfn.XLOOKUP(I965,$B$2:$B$798,$A$2:$A$798,65535)</f>
+        <v>65535</v>
+      </c>
+    </row>
+    <row r="967" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C967" t="str">
+        <f>_xlfn.CONCAT("uint8_t StanceImgIdx[] = {",_xlfn.TEXTJOIN(", ",FALSE,C$2:C965),"};")</f>
+        <v>uint8_t StanceImgIdx[] = {0, 1, 2, 3, 3, 0, 0, 0, 0, 1, 0, 3, 0, 0, 0, 0, 255, 5, 6, 5, 6, 0, 17, 19, 17, 19, 17, 4, 5, 6, 5, 5, 6, 5, 4, 17, 19, 17, 19, 17, 0, 6, 5, 6, 5, 13, 14, 13, 14, 0, 17, 19, 17, 19, 17, 12, 13, 14, 13, 13, 14, 13, 12, 17, 19, 17, 19, 17, 0, 14, 13, 14, 13, 16, 16, 0, 0, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 2, 1, 7, 5, 4, 5, 6, 5, 4, 5, 6, 5, 4, 5, 6, 5, 4, 5, 6, 5, 4, 5, 6, 5, 4, 5, 6, 5, 4, 5, 6, 5, 4, 5, 6, 5, 5, 4, 5, 5, 5, 5, 5, 5, 5, 5, 7, 5, 4, 5, 5, 5, 5, 6, 5, 5, 7, 5, 4, 4, 4, 4, 5, 5, 4, 4, 4, 4, 4, 5, 4, 4, 4, 4, 4, 4, 6, 5, 4, 4, 4, 4, 4, 4, 6, 5, 4, 4, 4, 4, 4, 4, 4, 4, 4, 6, 5, 4, 4, 4, 4, 4, 4, 4, 4, 5, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 6, 5, 4, 4, 4, 6, 5, 0, 32, 33, 34, 32, 33, 34, 32, 33, 34, 34, 33, 0, 4, 4, 34, 34, 34, 34, 34, 0, 0, 0, 0, 34, 34, 34, 34, 34, 34, 34, 0, 0, 0, 0, 0, 0, 0, 34, 34, 34, 34, 34, 34, 34, 34, 34, 5, 4, 5, 6, 5, 36, 36, 36, 36, 5, 5, 5, 4, 5, 6, 5, 36, 36, 36, 36, 36, 36, 36, 5, 5, 4, 5, 6, 5, 36, 36, 36, 36, 36, 36, 36, 5, 37, 38, 39, 38, 37, 38, 39, 38, 37, 38, 39, 40, 41, 42, 41, 40, 41, 42, 41, 40, 41, 42, 4, 4, 4, 4, 4, 5, 4, 5, 4, 5, 4, 5, 5, 4, 4, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 52, 4, 4, 6, 7, 5, 5, 4, 4, 4, 4, 4, 6, 5, 5, 4, 4, 4, 4, 4, 6, 19, 120, 121, 122, 123, 122, 121, 120, 121, 120, 121, 120, 121, 120, 121, 120, 121, 120, 120, 120, 120, 121, 120, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 5, 5, 100, 101, 102, 103, 96, 97, 98, 99, 20, 21, 22, 23, 112, 113, 114, 115, 20, 21, 22, 23, 8, 9, 10, 11, 9, 8, 8, 8, 8, 11, 8, 9, 8, 8, 8, 8, 8, 13, 12, 13, 14, 13, 12, 13, 14, 13, 12, 13, 14, 13, 12, 13, 14, 13, 12, 13, 14, 13, 12, 13, 14, 13, 12, 13, 14, 13, 12, 13, 14, 13, 13, 12, 13, 13, 13, 13, 13, 13, 13, 13, 15, 13, 13, 13, 13, 13, 13, 14, 13, 13, 15, 13, 12, 12, 12, 12, 13, 13, 12, 12, 12, 12, 12, 13, 12, 12, 12, 12, 12, 12, 14, 13, 12, 12, 12, 12, 12, 12, 14, 13, 12, 12, 12, 12, 12, 12, 12, 12, 12, 14, 13, 12, 12, 12, 12, 12, 12, 12, 12, 13, 14, 12, 12, 12, 12, 12, 12, 12, 12, 12, 12, 14, 13, 12, 12, 12, 14, 13, 0, 33, 32, 34, 33, 32, 34, 33, 32, 34, 34, 32, 0, 12, 12, 34, 34, 34, 34, 34, 0, 0, 0, 0, 34, 34, 34, 34, 34, 34, 34, 0, 0, 0, 0, 0, 0, 0, 34, 34, 34, 34, 34, 34, 34, 34, 34, 13, 12, 13, 14, 13, 44, 44, 44, 44, 13, 13, 13, 12, 13, 14, 13, 44, 44, 44, 44, 44, 44, 44, 13, 13, 12, 13, 14, 13, 44, 44, 44, 44, 44, 44, 44, 13, 45, 46, 47, 46, 45, 46, 47, 46, 45, 46, 47, 48, 49, 50, 49, 48, 49, 50, 49, 48, 49, 50, 12, 12, 12, 12, 12, 13, 12, 13, 12, 13, 12, 13, 13, 12, 12, 60, 60, 60, 60, 60, 60, 60, 60, 60, 60, 60, 60, 60, 12, 12, 14, 15, 13, 13, 12, 12, 12, 12, 12, 14, 13, 13, 12, 12, 12, 12, 12, 14, 19, 124, 125, 126, 127, 126, 125, 124, 125, 124, 125, 124, 125, 124, 125, 124, 125, 124, 124, 124, 124, 125, 124, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 13, 13, 108, 109, 110, 111, 104, 105, 106, 107, 28, 29, 30, 31, 116, 117, 118, 119, 28, 29, 30, 31, 4, 5, 5, 5, 5, 5, 5, 6, 7, 0, 1, 2, 3, 16, 17, 18, 19, 0, 20, 20, 21, 22, 22, 22, 20, 20, 20, 20, 20, 0, 1, 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 4, 5, 6, 7, 6, 5, 4, 5, 4, 5, 4, 5, 4, 5, 4, 5, 4, 4, 4, 4, 5, 4, 8, 9, 10, 11, 24, 25, 26, 27, 24, 28, 28, 29, 30, 30, 30, 28, 28, 28, 28, 28, 24, 9, 8, 8, 8, 8, 9, 9, 9, 9, 9, 9, 9, 9, 9, 12, 13, 14, 15, 14, 13, 12, 13, 12, 13, 12, 13, 12, 13, 12, 13, 12, 12, 12, 12, 13, 12, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 7};</v>
+      </c>
+    </row>
+    <row r="968" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C968" t="str">
+        <f>_xlfn.CONCAT("int8_t StanceY[] = {",_xlfn.TEXTJOIN(", ",FALSE,D$2:D965),"};")</f>
+        <v>int8_t StanceY[] = {0, 0, 0, 0, 0, 4, 3, 2, -2, -3, -4, 0, 4, 3, 2, -1, 255, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, -2, -2, -2, -2, -2, -2, -2, -2, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, -2, -2, -2, -2, -2, -2, -2, -2, 0, 0, 0, -4, -4, -4, -4, 0, 0, -3, -2, 0, 1, 2, 3, 2, 1, 0, -1, -2, -3, -2, -1, 0, 1, 2, 1, 0, -1, -2, -1, 0, 0, -2, 0, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 4, 2, 2, 0, 0, 0, 0, 0, -2, -2, -2, -2, 0, -2, -2, -4, 0, 0, -1, -1, -2, -4, -4, -4, -4, -4, 0, 0, 0, 4, 3, 2, -2, -3, -4, 1, 0, -1, 4, 3, 2, 1, -1, -1, 3, 3, 2, 1, 0, -1, 0, 4, 3, 2, 0, -2, -3, -4, 0, 4, 3, 2, 0, -2, -3, -4, 0, 2, 2, 1, 1, 0, 0, -1, -1, -2, -2, 0, 2, 1, 0, -1, -1, -2, -3, -4, 0, 0, 0, 2, 1, 0, -1, -1, -2, -3, -4, -4, -4, 0, 4, 3, 2, -1, 0, 2, 2, 0, 0, 0, 0, 0, 0, 0, -2, -2, 0, 0, 4, -1, 1, 2, 1, 0, -1, -2, -1, 0, 1, 2, 3, 3, 2, 1, 0, -1, -2, -3, -3, -2, -1, 0, 1, 2, 3, 3, 4, 4, 4, 4, 0, 0, 0, 0, 0, -3, -2, -2, -2, -2, -1, -4, 0, 0, 0, 0, -3, -2, -2, -2, -2, -2, -2, -1, 0, 0, 0, 0, 0, -3, -2, -2, -2, -2, -2, -2, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -4, 0, 2, 2, -2, -2, -1, 0, -1, 0, 0, 1, 0, 1, 2, 1, 0, 1, -2, -2, 0, 0, 1, 1, 1, 0, -1, -1, -1, 0, 1, 1, 1, 0, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 2, 1, -1, -2, -3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4, 3, 2, -2, -3, -4, 0, 4, 3, 2, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 4, 2, 2, 0, 0, 0, 0, 0, -2, -2, -2, -2, 0, -2, -2, -4, 0, 0, -1, -1, -2, -4, -4, -4, -4, -4, 0, 0, 0, 4, 3, 2, -2, -3, -4, 1, 0, -1, 4, 3, 2, 1, -1, -1, 3, 3, 2, 1, 0, -1, 0, 4, 3, 2, 0, -2, -3, -4, 0, 4, 3, 2, 0, -2, -3, -4, 0, 2, 2, 1, 1, 0, 0, -1, -1, -2, -2, 0, 2, 1, 0, -1, -1, -2, -3, -4, 0, 0, 0, 2, 1, 0, -1, -1, -2, -3, -4, -4, -4, 0, 4, 3, 2, -1, 0, 2, 2, 0, 0, 0, 0, 0, 0, 0, -2, -2, 0, 0, 4, -1, 1, 2, 1, 0, -1, -2, -1, 0, 1, 2, 3, 3, 2, 1, 0, -1, -2, -3, -3, -2, -1, 0, 1, 2, 3, 3, 4, 4, 4, 4, 0, 0, 0, 0, 0, -3, -2, -2, -2, -2, -1, -4, 0, 0, 0, 0, -3, -2, -2, -2, -2, -2, -2, -1, 0, 0, 0, 0, 0, -3, -2, -2, -2, -2, -2, -2, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -4, 0, 2, 2, -2, -2, -1, 0, -1, 0, 0, 1, 0, 1, 2, 1, 0, 1, -2, -2, 0, 0, 1, 1, 1, 0, -1, -1, -1, 0, 1, 1, 1, 0, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 2, 1, -1, -2, -3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -2, -1, 0, 1, 2, 4, 7, 11, 15, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 2, 1, -1, -2, -3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 2, 1, -1, -2, -3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 15};</v>
+      </c>
+    </row>
+    <row r="969" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C969" t="str">
+        <f>_xlfn.CONCAT("int8_t xForeground[] = {",_xlfn.TEXTJOIN(", ",FALSE,E$2:E965),"};")</f>
+        <v>int8_t xForeground[] = {0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -5, -5, 0, 0, 0, 0, 0, 0, 0, 0, 0, -5, -5, -5, -5, -5, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -5, -5, 5, 5, 0, 0, 0, 0, 0, 0, 0, 0, 0, 5, 5, 5, 5, 5, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 5, 5, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -5, -5, -5, -5, -5, -5, -5, 0, -5, -5, -5, 0, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, 0, 0, 0, 0, -5, -5, -5, -5, -5, -5, -5, -5, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -5, -5, -5, -5, 0, -5, -5, -5, -5, 0, 0, -5, -5, -5, -5, 0, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, 0, -5, -5, -5, -5, -5, -5, -5, -5, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, -5, 0, -5, -5, -8, -8, -8, -10, -10, -10, -10, -10, -10, -8, -8, -8, -5, -5, -5, -5, -5, 0, 0, -5, -5, -5, -5, -2, -2, -5, 0, -5, -5, -5, -5, -2, -2, -5, 0, 0, 0, 0, 0, 0, 0, -5, -5, -5, -5, 5, 5, 5, 5, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 10, -10, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 5, 5, 5, 5, 5, 5, 5, 0, 5, 5, 5, 0, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 0, 0, 0, 0, 5, 5, 5, 5, 5, 5, 5, 5, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 5, 5, 5, 5, 0, 5, 5, 5, 5, 0, 0, 5, 5, 5, 5, 0, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 0, 5, 5, 5, 5, 5, 5, 5, 5, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 0, 5, 5, 8, 8, 8, 10, 10, 10, 10, 10, 10, 8, 8, 8, 5, 5, 5, 5, 5, 0, 0, 5, 5, 5, 5, 2, 2, 5, 0, 5, 5, 5, 5, 2, 2, 5, 0, 0, 0, 0, 0, 0, 0, 5, 5, 5, 5, -5, -5, -5, -5, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -10, 10, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 5, 5, 5, 5, -5, -5, -5, -5, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -5, -5, -5, -5, 5, 5, 5, 5, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0};</v>
+      </c>
+    </row>
+    <row r="970" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C970" t="str">
+        <f>_xlfn.CONCAT("int8_t xMiddleground[] = {",_xlfn.TEXTJOIN(", ",FALSE,F$2:F965),"};")</f>
+        <v>int8_t xMiddleground[] = {0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -2, -2, 0, 0, 0, 0, 0, 0, 0, 0, 0, -2, -2, 0, -2, -2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -2, -2, 2, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 0, 2, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -2, -2, -2, -2, 0, -2, -1, 0, -1, -1, -1, 0, 0, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -3, -3, -2, -2, -2, -2, -2, -2, -2, -2, -2, -3, -3, -2, -2, -2, -2, -2, -2, -2, -2, -2, -3, -3, -2, -2, -2, -2, -2, -2, -2, -1, -1, 0, 0, 0, 0, -2, -2, -2, -2, -2, -2, -2, -2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -2, -2, -2, -2, 0, -2, -2, -2, -2, 0, 0, -2, -2, -2, -2, 0, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, 0, -2, -2, -2, -2, -2, -2, -2, -2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, -2, 0, -2, -2, -3, -4, -3, -3, -4, -4, -4, -4, -4, -3, -3, -3, -2, -2, -2, -2, -2, 0, 0, -2, -2, -2, -2, -1, -1, -2, 0, -2, -2, -2, -2, -1, -1, -2, 0, 0, 0, 0, 0, 0, 0, -2, -2, -2, -2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4, -4, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 0, 2, 1, 0, 1, 1, 1, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 3, 3, 2, 2, 2, 2, 2, 2, 2, 1, 1, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 0, 2, 2, 2, 2, 0, 0, 2, 2, 2, 2, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0, 2, 2, 2, 2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0, 2, 2, 3, 4, 3, 3, 4, 4, 4, 4, 4, 3, 3, 3, 2, 2, 2, 2, 2, 0, 0, 2, 2, 2, 2, 1, 1, 2, 0, 2, 2, 2, 2, 1, 1, 2, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, -2, -2, -2, -2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -4, 4, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 2, 2, 2, -2, -2, -2, -2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -2, -2, -2, -2, 2, 2, 2, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0};</v>
+      </c>
+    </row>
+    <row r="971" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C971" t="str">
+        <f>_xlfn.CONCAT("int8_t xBackground[] = {",_xlfn.TEXTJOIN(", ",FALSE,G$2:G965),"};")</f>
+        <v>int8_t xBackground[] = {0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, 0, -1, 0, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, 0, -1, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, -1, 0, 0, -1, 0, 0, 0, 0, 0, 0, -1, 0, -1, -1, 0, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, 0, -1, -1, -1, -1, 0, 0, -1, -1, -1, -1, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, -1, 0, -1, -1, -2, -2, -2, -2, -2, -2, -2, -2, -2, -1, -1, -1, -1, -1, -1, -1, -1, 0, 0, -1, -1, -1, -1, 0, -1, -1, 0, -1, -1, -1, -1, 0, 0, -1, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, -2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 0, 1, 1, 1, 1, 0, 0, 1, 1, 1, 1, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0, 1, 1, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 0, 0, 1, 1, 1, 1, 0, 1, 1, 0, 1, 1, 1, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -2, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, -1, -1, -1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, -1, -1, -1, -1, 1, 1, 1, -1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0};</v>
+      </c>
+    </row>
+    <row r="972" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C972" t="str">
+        <f>_xlfn.CONCAT("uint16_t subsititueStance[] = {",_xlfn.TEXTJOIN(", ",FALSE,H$2:H965),"};")</f>
+        <v>uint16_t subsititueStance[] = {65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 109, 65535, 109, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 109, 65535, 65535, 65535, 65535, 65535, 109, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 109, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 109, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 234, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 109, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 109, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 51, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 439, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 458, 65535, 458, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 458, 65535, 65535, 65535, 65535, 65535, 458, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 458, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 458, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 583, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 458, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 458, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 51, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 832, 65535, 832, 65535, 65535, 65535, 832, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 832, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 889, 65535, 889, 65535, 65535, 65535, 889, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 889, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535, 65535};</v>
       </c>
     </row>
   </sheetData>

--- a/Arrays.xlsx
+++ b/Arrays.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonholmes/projects/SummerFX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1C342B-AD17-014B-BC62-D19C0B988061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86422234-D381-9A4D-B13E-20145F44DEDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17940" yWindow="1240" windowWidth="36840" windowHeight="29660" xr2:uid="{50E1C641-7614-0542-B3D9-BEFC89310226}"/>
+    <workbookView xWindow="9120" yWindow="3580" windowWidth="36840" windowHeight="29660" activeTab="3" xr2:uid="{50E1C641-7614-0542-B3D9-BEFC89310226}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="1006">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="1021">
   <si>
     <t>Man_StandingJump_FW_UP_01</t>
   </si>
@@ -3055,13 +3057,58 @@
   </si>
   <si>
     <t>Man_Die_Water_LH_02_07</t>
+  </si>
+  <si>
+    <t>63,96,</t>
+  </si>
+  <si>
+    <t>24,166,</t>
+  </si>
+  <si>
+    <t>54,239,</t>
+  </si>
+  <si>
+    <t>180,212,</t>
+  </si>
+  <si>
+    <t>62,336,</t>
+  </si>
+  <si>
+    <t>151,266,</t>
+  </si>
+  <si>
+    <t>209,365,</t>
+  </si>
+  <si>
+    <t>284,273,</t>
+  </si>
+  <si>
+    <t>332,338,</t>
+  </si>
+  <si>
+    <t>359,200,</t>
+  </si>
+  <si>
+    <t>354,129,</t>
+  </si>
+  <si>
+    <t>290,61,</t>
+  </si>
+  <si>
+    <t>6d</t>
+  </si>
+  <si>
+    <t>UL / ML</t>
+  </si>
+  <si>
+    <t>UM / MM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3102,8 +3149,22 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3122,6 +3183,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3135,7 +3202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3148,6 +3215,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3163,6 +3236,3524 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>799400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>799400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="1,1,2,2,">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FBED95D-ABF0-5647-FC65-E4AA5F7B2E1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25400" y="25400"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>812100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>799400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="1,0,2,0,">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85CB78FF-0CD2-50B2-CBC9-0084EBB9118C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="850900"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>812100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>799400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="0,1,0,2,">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF920577-D97D-9ADC-0D88-956C5246551D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="1676400"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>812100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>799400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="4,5,1,2,">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47EA416D-7BD7-FCD1-018C-07F75DA22B99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="2501900"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>799400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>799400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="0,0,1,1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{955F03CC-DAE6-2BDB-B8C7-183B4804362E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="850900" y="25400"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>799400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>799400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6" descr="0,0,0,6,">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F26D591C-C293-7850-9AC8-F30BBA4420A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="850900" y="3327400"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>799400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>799400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7" descr="0,0,11,0,">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C76071C2-1A04-78FE-036E-A8E1B018DE3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25400" y="3327400"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>799400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>799400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8" descr="9,10,2,1,">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{620638F3-3E91-1B33-F094-BE2F17A83391}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="850900" y="2501900"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>812100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>812100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10" descr="12.12.7.7.">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8B6755C-4485-0725-BACF-039560ADCBAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="863600" y="7467600"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>799400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>812100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11" descr="8,8,12,12,">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3683419E-AFC0-6889-A3F1-1B2AA34143B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25400" y="8293100"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>799400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>799400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13" descr="12,12,12,12,">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A80391-1CB1-F918-36D3-58B8F1231547}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="850900" y="8280400"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>799400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>799400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{808E2973-3D16-BDDF-600B-793A07084551}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25400" y="9105900"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>799400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>799400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9A1A0BD-FE9B-ECB3-927B-E1DD33B3D723}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25400" y="9931400"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>824800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>799400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78DDA63E-24C3-BC8C-0A1F-D6BE999453D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="876300" y="9105900"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>799400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>812100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9299047F-2CB0-58A5-311D-426CFCA5ADDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25400" y="10769600"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>799400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>812100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4657D6F1-F954-50FF-F64A-43771871D261}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="850900" y="10769600"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>799400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>799400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47DF0ACC-8D85-336A-0D36-F9D4826FF68B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="850900" y="9931400"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>799400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>799400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20" descr="19,0,2,0,">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21B2C69D-0473-3D2C-DF1C-C75149710AAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25400" y="4152900"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>812100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>799400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21" descr="0,21,0,2,">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A3389C9-22B5-D953-B906-89C6FE16B7E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="863600" y="4152900"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>799400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>799400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF4B96FB-373E-1FE9-CE76-B91AAD97F868}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25400" y="4978400"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>799400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>799400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BEF6745-F448-AD3E-9041-F05668C47DAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="850900" y="4978400"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>799400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>799400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24" descr="1,19,2,2,">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD374A14-8A50-771E-748E-99F937AA9755}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25400" y="5803900"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>799400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>799400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25" descr="20,0,2,20,">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E9317CE-96B2-0B14-BA2E-EB05375C9CED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25400" y="6629400"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>799400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>799400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26" descr="21,1,2,2,">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC64D222-2695-BC8B-07E5-4484F3D28687}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="850900" y="5803900"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>812100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>799400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27" descr="0,22,22,2,">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7DCE6DB-81F2-96D3-5652-4026F9C84E5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="863600" y="6629400"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>799400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>812100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72425C28-B8B2-C102-DF40-EE3F152F9632}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:srcRect r="75820"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25400" y="11595100"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>799400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>812100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9066D6EA-D969-99C8-F1FA-CCBD5067EBDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:srcRect r="75410"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="850900" y="11595100"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>25401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>799400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>799401</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97185B16-7B39-C830-D51F-E53240D2EEBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:srcRect r="74583"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25400" y="12407901"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>812100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>812100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BABCC8D-64C1-64A6-3938-88683868F59F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:srcRect r="75000"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="863600" y="12420600"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>812100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>799400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32" descr="33,33,31,31,">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA1B8ADC-F7B8-6CAF-3817-43CB6AA4C6A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="13233400"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>799400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>799400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33" descr="31,31,31,31,">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{114E8728-B9DC-E0DE-7974-AB2834612A0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="850900" y="13233400"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>799400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>799400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34" descr="31,31,32,32,">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3DBD7B6-0172-E3FB-72DE-DD86AD87704B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1676400" y="13233400"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>799400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>799400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3218A1BA-CCB7-8D9D-D2EE-21C4A39856E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:srcRect r="87800" b="51200"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25400" y="14058900"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>799400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>799400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0663D9CE-F129-1992-D578-AB65B274E4BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:srcRect l="25494" t="50593" r="62450"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="850900" y="14058900"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>799400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>799400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD622F9B-D88D-2315-4433-A5FAB6CC733D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:srcRect r="88235" b="52157"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1676400" y="14058900"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>786484</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>774000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 38" descr="8,8,7,7,">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C22A544-1F29-4ECF-F6C8-DF1B860A257C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7429500"/>
+          <a:ext cx="786484" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>805750</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>805750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 39" descr="4,5,1,2,">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7813ECD8-3726-CC49-AEE1-0F87B7B90122}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10763250" y="8286750"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>789875</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>805750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 40" descr="1,1,2,2,">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2DE3F98-BB86-7942-BE3E-506E1C99FF52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11572875" y="8286750"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>41275</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>815275</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>815275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 41" descr="1,1,2,2,">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99A7C0E-9D2D-F34A-A09A-FE2E27316416}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12423775" y="8296275"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>34925</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>808925</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>808925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Picture 42" descr="1,1,2,2,">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10EC394A-B287-ED45-86EE-DED80F431C57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11591925" y="6638925"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>805750</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>805750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Picture 43" descr="12.12.7.7.">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{247DF599-F389-CF44-8DC9-D7E804E7407A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12414250" y="7461250"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>805750</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>805750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Picture 45" descr="8,8,12,12,">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02859686-F515-9347-A62C-2256934CD21E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12414250" y="6635750"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>805750</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>805750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Picture 46" descr="1,1,2,2,">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49ACDF59-5D99-2F4C-8368-A0EAC825E1EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13239750" y="6635750"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>805750</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>805750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Picture 47" descr="1,19,2,2,">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F796ACD5-521D-564F-A23F-B2156C963B43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13239750" y="8286750"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>789875</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>821625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Picture 48" descr="12.12.7.7.">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A162EAC0-6A45-6E46-97AA-5C4B3B7044E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14049375" y="5826125"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>805750</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>805750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Picture 49" descr="12,12,12,12,">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8016CF8-52C8-1743-908C-87AA05270F8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14065250" y="4984750"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>805750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>789875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Picture 50" descr="8,8,12,12,">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38850D20-91CC-E942-B579-BA9A303799AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14065250" y="4143375"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>34925</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>808925</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>808925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Picture 51" descr="1,1,2,2,">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D4BC158-81EB-974C-8D28-E96B42805DDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13242925" y="4162425"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>805750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>805750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Picture 52" descr="1,1,2,2,">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{635C0A3D-30A9-7749-8C8B-45F4ACE485F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12414250" y="4159250"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>799400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>815275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Picture 53" descr="1,1,2,2,">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACB0485E-5E54-354C-B348-7254F8BF4084}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11582400" y="4168775"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>805750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>805750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Picture 54" descr="1,1,2,2,">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06483DD9-B23F-EC40-B1AF-7DE6D5E431AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14890750" y="4159250"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>799400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>815275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Picture 55" descr="1,1,2,2,">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E4670BD-86BC-DE4E-8FA2-D14F173CD761}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14058900" y="6645275"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>34925</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>808925</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>808925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Picture 56" descr="1,1,2,2,">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEC1AA9D-D223-A34B-9AE4-A18ADE6DA3D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15719425" y="4162425"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>821625</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>805750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Picture 57" descr="4,5,1,2,">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53521830-B37D-1941-B351-A58E8F4F6D24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15732125" y="8286750"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>805750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>805750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Picture 58" descr="31,31,31,31,">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45CBB703-7FE3-9C43-A792-599DB975E845}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16541750" y="3333750"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>41275</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>815275</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>815275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Picture 59" descr="31,31,31,31,">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A0D2993-31C3-724A-BB06-70CE1F024D22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16551275" y="4168775"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>34925</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>808925</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>808925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="Picture 60" descr="31,31,31,31,">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A335BC17-6A6A-CE41-9AD9-C3C60ED00D46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16544925" y="4987925"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>805750</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>805750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="Picture 61" descr="31,31,32,32,">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA1243E9-7921-BE40-90AA-D0B1EC6F8528}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16541750" y="6635750"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>805750</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>805750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="Picture 62" descr="31,31,31,31,">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C6C7F6B-0C99-FD42-92D5-557FD871F1E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16541750" y="5810250"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>821625</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>805750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Picture 63" descr="1,1,2,2,">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DE3FFF3-7116-AC4E-B9A8-CACE8F14989E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16557625" y="8286750"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>41275</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>815275</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>799400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="Picture 64" descr="1,1,2,2,">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2333E26C-3362-504A-86F2-CC4E715ECFF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17376775" y="8280400"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>805750</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>805750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="Picture 65" descr="33,33,31,31,">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BF7687E-0F1A-A34C-9AF3-9A0D236847D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16541750" y="2508250"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>821625</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>821625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="Picture 66" descr="1,1,2,2,">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{911717C1-4B73-634A-9B97-80E9E1BE25FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16557625" y="1698625"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>41275</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>815275</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>815275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="Picture 67" descr="1,1,2,2,">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2A71B42-DAD1-1141-B947-52831ADA17D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15725775" y="1692275"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>41275</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>815275</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>815275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="Picture 68" descr="1,1,2,2,">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CBC0FBB-3D82-6941-A2AF-029BD1810658}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14900275" y="1692275"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>34925</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>808925</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>808925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="Picture 69" descr="1,1,2,2,">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B483903A-9986-F04D-9836-81E97063FA49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14068425" y="1685925"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>824800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>824800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="Picture 70" descr="1,1,2,2,">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF9C5AD9-69C8-9549-A41C-A76482C5D39A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18211800" y="1701800"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>818450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>818450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="Picture 71" descr="1,1,2,2,">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{555A7834-F0A2-B34E-B855-E0FDBC7C4BC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17379950" y="1695450"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>818450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>818450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="Picture 72" descr="1,1,2,2,">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{881DA8E6-C013-CC4F-8DBD-4BF1DA3993F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19856450" y="1695450"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>812100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>812100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="Picture 73" descr="1,1,2,2,">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E569D97-68F2-E244-AF57-65153788A5EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19024600" y="1689100"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>53975</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>2475</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>812100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="Picture 74" descr="1,1,2,2,">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B92157DB-AB48-B14D-9AE4-EC95BF39D4B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18214975" y="4165600"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>821625</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>805750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="Picture 75" descr="1,1,2,2,">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03628AFE-5AC7-8847-A26B-E764C3867BB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17383125" y="4159250"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>805750</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>805750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="Picture 76" descr="1,1,2,2,">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22D1313E-77EB-2945-81F9-DD8E76DCADF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18192750" y="5810250"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>799400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>799400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="Picture 77" descr="1,1,2,2,">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F72D77E8-1AB2-F346-90A3-79BE2F2637B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17360900" y="5803900"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>805750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>805750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="Picture 78" descr="1,1,2,2,">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC76BA15-4456-C24F-8D54-91BA0AE99D54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11588750" y="3333750"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>41275</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>815275</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>815275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="Picture 79" descr="1,1,2,2,">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31A962B2-6204-3742-8B0C-F40194A9632D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11598275" y="2517775"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>805750</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>805750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="Picture 80" descr="1,19,2,2,">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C4751C5-8056-2246-8FC1-4296B8EB74D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19018250" y="5810250"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>805750</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>805750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="Picture 81" descr="21,1,2,2,">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EA4D094-CC24-8849-BD5F-31E586C74013}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20669250" y="5810250"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>821625</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>805750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="Picture 82" descr="1,1,2,2,">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEBBCCD2-8BED-9341-92FB-F9358391139F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19034125" y="6635750"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>41275</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>815275</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>799400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="Picture 83" descr="1,1,2,2,">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59D9D661-AE25-C04D-A135-242B7D80C389}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20678775" y="6629400"/>
+          <a:ext cx="774000" cy="774000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3484,7 +7075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB0A31D-4C97-AD45-A228-2A94A1C41CE1}">
   <dimension ref="A1:Q1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+    <sheetView topLeftCell="A92" workbookViewId="0">
       <pane ySplit="18420" topLeftCell="A988"/>
       <selection activeCell="F110" sqref="F110:F113"/>
       <selection pane="bottomLeft" activeCell="C995" sqref="C995:C1000"/>
@@ -20091,23 +23682,23 @@
       </c>
       <c r="I365" s="1"/>
       <c r="J365">
-        <f t="shared" ref="J365:J428" si="42">C365-C728</f>
+        <f t="shared" ref="J365:J384" si="42">C365-C728</f>
         <v>-8</v>
       </c>
       <c r="K365">
-        <f t="shared" ref="K365:K428" si="43">D365-D728</f>
+        <f t="shared" ref="K365:K384" si="43">D365-D728</f>
         <v>0</v>
       </c>
       <c r="L365">
-        <f t="shared" ref="L365:L428" si="44">E365+E728</f>
+        <f t="shared" ref="L365:L384" si="44">E365+E728</f>
         <v>0</v>
       </c>
       <c r="M365">
-        <f t="shared" ref="M365:M428" si="45">F365+F728</f>
+        <f t="shared" ref="M365:M384" si="45">F365+F728</f>
         <v>0</v>
       </c>
       <c r="N365">
-        <f t="shared" ref="N365:N428" si="46">G365+G728</f>
+        <f t="shared" ref="N365:N384" si="46">G365+G728</f>
         <v>0</v>
       </c>
     </row>
@@ -40365,23 +43956,23 @@
         <v>65535</v>
       </c>
       <c r="J792">
-        <f t="shared" ref="J792:J855" si="106">C792-C429</f>
+        <f t="shared" ref="J792:J803" si="106">C792-C429</f>
         <v>8</v>
       </c>
       <c r="K792">
-        <f t="shared" ref="K792:K855" si="107">D792-D429</f>
+        <f t="shared" ref="K792:K803" si="107">D792-D429</f>
         <v>0</v>
       </c>
       <c r="L792">
-        <f t="shared" ref="L792:L855" si="108">E792+E429</f>
+        <f t="shared" ref="L792:L803" si="108">E792+E429</f>
         <v>0</v>
       </c>
       <c r="M792">
-        <f t="shared" ref="M792:M855" si="109">F792+F429</f>
+        <f t="shared" ref="M792:M803" si="109">F792+F429</f>
         <v>0</v>
       </c>
       <c r="N792">
-        <f t="shared" ref="N792:N855" si="110">G792+G429</f>
+        <f t="shared" ref="N792:N803" si="110">G792+G429</f>
         <v>0</v>
       </c>
     </row>
@@ -45706,7 +49297,7 @@
         <v>0</v>
       </c>
       <c r="H962">
-        <f t="shared" ref="H962:H1025" si="124">_xlfn.XLOOKUP(I962,$B$2:$B$940,$A$2:$A$940,65535)</f>
+        <f t="shared" ref="H962:H992" si="124">_xlfn.XLOOKUP(I962,$B$2:$B$940,$A$2:$A$940,65535)</f>
         <v>65535</v>
       </c>
       <c r="I962" s="1"/>
@@ -46930,4 +50521,537 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA44788-41EC-2B40-9758-56CEFEC7A520}">
+  <dimension ref="A1:AB29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:AB5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="N1" s="12">
+        <v>224108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>140</v>
+      </c>
+      <c r="B3">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>63</v>
+      </c>
+      <c r="D3">
+        <v>96</v>
+      </c>
+      <c r="E3">
+        <v>24</v>
+      </c>
+      <c r="F3">
+        <v>166</v>
+      </c>
+      <c r="G3">
+        <v>54</v>
+      </c>
+      <c r="H3">
+        <v>239</v>
+      </c>
+      <c r="I3">
+        <v>180</v>
+      </c>
+      <c r="J3">
+        <v>212</v>
+      </c>
+      <c r="K3">
+        <v>62</v>
+      </c>
+      <c r="L3">
+        <v>336</v>
+      </c>
+      <c r="M3">
+        <v>151</v>
+      </c>
+      <c r="N3">
+        <v>266</v>
+      </c>
+      <c r="O3">
+        <v>209</v>
+      </c>
+      <c r="P3">
+        <v>365</v>
+      </c>
+      <c r="Q3">
+        <v>284</v>
+      </c>
+      <c r="R3">
+        <v>273</v>
+      </c>
+      <c r="S3">
+        <v>332</v>
+      </c>
+      <c r="T3">
+        <v>338</v>
+      </c>
+      <c r="U3">
+        <v>359</v>
+      </c>
+      <c r="V3">
+        <v>200</v>
+      </c>
+      <c r="W3">
+        <v>354</v>
+      </c>
+      <c r="X3">
+        <v>129</v>
+      </c>
+      <c r="Y3">
+        <v>290</v>
+      </c>
+      <c r="Z3">
+        <v>61</v>
+      </c>
+      <c r="AA3">
+        <v>224</v>
+      </c>
+      <c r="AB3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f>IF(A3&gt;256,(MOD(A3,256)*256) + 1,A3*256)</f>
+        <v>35840</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ref="B5:AB5" si="0">IF(B3&gt;256,(MOD(B3,256)*256) + 1,B3*256)</f>
+        <v>3584</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>16128</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>24576</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>6144</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>42496</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>13824</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>61184</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>46080</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>54272</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>15872</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>20481</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>38656</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>2561</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>53504</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>27905</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>7169</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>4353</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>19457</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="0"/>
+        <v>20993</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>26369</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="0"/>
+        <v>51200</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="0"/>
+        <v>25089</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="0"/>
+        <v>33024</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="0"/>
+        <v>8705</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="0"/>
+        <v>15616</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="0"/>
+        <v>57344</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="0"/>
+        <v>27648</v>
+      </c>
+    </row>
+    <row r="26" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L26">
+        <v>256</v>
+      </c>
+      <c r="M26">
+        <f>365-L26</f>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="29" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="M29">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60E5DE2A-E1FB-CD40-AB9E-9F634A89D4C2}">
+  <dimension ref="C1:AT12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Z6" sqref="Z6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="65" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="3:46" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E1" s="13"/>
+      <c r="F1" s="13">
+        <v>0</v>
+      </c>
+      <c r="G1" s="13">
+        <v>1</v>
+      </c>
+      <c r="H1" s="13">
+        <v>2</v>
+      </c>
+      <c r="I1" s="13">
+        <v>3</v>
+      </c>
+      <c r="J1" s="13">
+        <v>4</v>
+      </c>
+      <c r="K1" s="13">
+        <v>5</v>
+      </c>
+      <c r="L1" s="13">
+        <v>6</v>
+      </c>
+      <c r="M1" s="13">
+        <v>7</v>
+      </c>
+      <c r="N1" s="13">
+        <v>8</v>
+      </c>
+      <c r="O1" s="13">
+        <v>9</v>
+      </c>
+      <c r="P1" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="13">
+        <v>11</v>
+      </c>
+      <c r="R1" s="13">
+        <v>12</v>
+      </c>
+      <c r="S1" s="13">
+        <v>13</v>
+      </c>
+      <c r="T1" s="13">
+        <v>14</v>
+      </c>
+      <c r="U1" s="13">
+        <v>15</v>
+      </c>
+      <c r="V1" s="13">
+        <v>16</v>
+      </c>
+      <c r="W1" s="13">
+        <v>17</v>
+      </c>
+      <c r="X1" s="13">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="13">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="13">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="13">
+        <v>21</v>
+      </c>
+      <c r="AB1" s="13">
+        <v>22</v>
+      </c>
+      <c r="AC1" s="13">
+        <v>23</v>
+      </c>
+      <c r="AD1" s="13">
+        <v>24</v>
+      </c>
+      <c r="AE1" s="13">
+        <v>25</v>
+      </c>
+      <c r="AF1" s="13">
+        <v>26</v>
+      </c>
+      <c r="AG1" s="13">
+        <v>27</v>
+      </c>
+      <c r="AH1" s="13">
+        <v>28</v>
+      </c>
+      <c r="AI1" s="13">
+        <v>29</v>
+      </c>
+      <c r="AJ1" s="13">
+        <v>30</v>
+      </c>
+      <c r="AK1" s="13">
+        <v>31</v>
+      </c>
+      <c r="AL1" s="13">
+        <v>32</v>
+      </c>
+      <c r="AM1" s="13">
+        <v>33</v>
+      </c>
+      <c r="AN1" s="13">
+        <v>34</v>
+      </c>
+      <c r="AO1" s="13">
+        <v>35</v>
+      </c>
+      <c r="AP1" s="13">
+        <v>36</v>
+      </c>
+      <c r="AQ1" s="13">
+        <v>37</v>
+      </c>
+      <c r="AR1" s="13">
+        <v>38</v>
+      </c>
+      <c r="AS1" s="13">
+        <v>39</v>
+      </c>
+      <c r="AT1" s="14"/>
+    </row>
+    <row r="2" spans="3:46" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E2" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="14"/>
+    </row>
+    <row r="3" spans="3:46" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E3" s="13">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="14"/>
+    </row>
+    <row r="4" spans="3:46" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E4" s="13">
+        <v>2</v>
+      </c>
+      <c r="AT4" s="14"/>
+    </row>
+    <row r="5" spans="3:46" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E5" s="13">
+        <v>3</v>
+      </c>
+      <c r="AT5" s="14"/>
+    </row>
+    <row r="6" spans="3:46" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E6" s="13">
+        <v>4</v>
+      </c>
+      <c r="AT6" s="14"/>
+    </row>
+    <row r="7" spans="3:46" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E7" s="13">
+        <v>5</v>
+      </c>
+      <c r="AT7" s="14"/>
+    </row>
+    <row r="8" spans="3:46" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E8" s="13">
+        <v>6</v>
+      </c>
+      <c r="AT8" s="14"/>
+    </row>
+    <row r="9" spans="3:46" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E9" s="13">
+        <v>7</v>
+      </c>
+      <c r="N9" s="15"/>
+      <c r="AT9" s="14"/>
+    </row>
+    <row r="10" spans="3:46" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E10" s="13">
+        <v>8</v>
+      </c>
+      <c r="AT10" s="14"/>
+    </row>
+    <row r="11" spans="3:46" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E11" s="13">
+        <v>9</v>
+      </c>
+      <c r="AT11" s="14"/>
+    </row>
+    <row r="12" spans="3:46" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="14"/>
+      <c r="AE12" s="14"/>
+      <c r="AF12" s="14"/>
+      <c r="AG12" s="14"/>
+      <c r="AH12" s="14"/>
+      <c r="AI12" s="14"/>
+      <c r="AJ12" s="14"/>
+      <c r="AK12" s="14"/>
+      <c r="AL12" s="14"/>
+      <c r="AM12" s="14"/>
+      <c r="AN12" s="14"/>
+      <c r="AO12" s="14"/>
+      <c r="AP12" s="14"/>
+      <c r="AQ12" s="14"/>
+      <c r="AR12" s="14"/>
+      <c r="AS12" s="14"/>
+      <c r="AT12" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>